--- a/Data_frame/balancos_definitivos/MMAQ4.xlsx
+++ b/Data_frame/balancos_definitivos/MMAQ4.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2007</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2007</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2007</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>31/03/2008</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/06/2008</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>30/09/2008</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/12/2008</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>31/03/2009</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,184 +747,184 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42216</v>
+        <v>54960</v>
       </c>
       <c r="C2" t="n">
-        <v>47519</v>
+        <v>64545</v>
       </c>
       <c r="D2" t="n">
-        <v>57501</v>
+        <v>67973</v>
       </c>
       <c r="E2" t="n">
-        <v>54960</v>
+        <v>61592</v>
       </c>
       <c r="F2" t="n">
-        <v>64545</v>
+        <v>73560</v>
       </c>
       <c r="G2" t="n">
-        <v>67973</v>
+        <v>83712</v>
       </c>
       <c r="H2" t="n">
-        <v>61592</v>
+        <v>85216</v>
       </c>
       <c r="I2" t="n">
-        <v>73560</v>
+        <v>84449</v>
       </c>
       <c r="J2" t="n">
-        <v>83712</v>
+        <v>100497</v>
       </c>
       <c r="K2" t="n">
-        <v>85216</v>
+        <v>123718</v>
       </c>
       <c r="L2" t="n">
-        <v>84449</v>
+        <v>139220.992</v>
       </c>
       <c r="M2" t="n">
-        <v>100497</v>
+        <v>138606</v>
       </c>
       <c r="N2" t="n">
-        <v>123718</v>
+        <v>167092</v>
       </c>
       <c r="O2" t="n">
-        <v>139220.992</v>
+        <v>180184.992</v>
       </c>
       <c r="P2" t="n">
-        <v>138606</v>
+        <v>124401</v>
       </c>
       <c r="Q2" t="n">
-        <v>167092</v>
+        <v>116432</v>
       </c>
       <c r="R2" t="n">
-        <v>180184.992</v>
+        <v>132948</v>
       </c>
       <c r="S2" t="n">
-        <v>124401</v>
+        <v>146964.992</v>
       </c>
       <c r="T2" t="n">
-        <v>116432</v>
+        <v>145234</v>
       </c>
       <c r="U2" t="n">
-        <v>132948</v>
+        <v>140808</v>
       </c>
       <c r="V2" t="n">
-        <v>146964.992</v>
+        <v>141724.992</v>
       </c>
       <c r="W2" t="n">
-        <v>145234</v>
+        <v>124347</v>
       </c>
       <c r="X2" t="n">
-        <v>140808</v>
+        <v>139382</v>
       </c>
       <c r="Y2" t="n">
-        <v>141724.992</v>
+        <v>145306</v>
       </c>
       <c r="Z2" t="n">
-        <v>124347</v>
+        <v>129667</v>
       </c>
       <c r="AA2" t="n">
-        <v>139382</v>
+        <v>128518</v>
       </c>
       <c r="AB2" t="n">
-        <v>145306</v>
+        <v>132816</v>
       </c>
       <c r="AC2" t="n">
-        <v>129667</v>
+        <v>133286</v>
       </c>
       <c r="AD2" t="n">
-        <v>128518</v>
+        <v>152404</v>
       </c>
       <c r="AE2" t="n">
-        <v>132816</v>
+        <v>145452</v>
       </c>
       <c r="AF2" t="n">
-        <v>133286</v>
+        <v>137099.008</v>
       </c>
       <c r="AG2" t="n">
-        <v>152404</v>
+        <v>145076.992</v>
       </c>
       <c r="AH2" t="n">
-        <v>145452</v>
+        <v>154500</v>
       </c>
       <c r="AI2" t="n">
-        <v>137099.008</v>
+        <v>145622</v>
       </c>
       <c r="AJ2" t="n">
-        <v>145076.992</v>
+        <v>146264.992</v>
       </c>
       <c r="AK2" t="n">
-        <v>154500</v>
+        <v>174762</v>
       </c>
       <c r="AL2" t="n">
-        <v>145622</v>
+        <v>175516.992</v>
       </c>
       <c r="AM2" t="n">
-        <v>146264.992</v>
+        <v>175406</v>
       </c>
       <c r="AN2" t="n">
-        <v>174762</v>
+        <v>163924.992</v>
       </c>
       <c r="AO2" t="n">
-        <v>175516.992</v>
+        <v>185404.992</v>
       </c>
       <c r="AP2" t="n">
-        <v>175406</v>
+        <v>211156.992</v>
       </c>
       <c r="AQ2" t="n">
-        <v>163924.992</v>
+        <v>213206</v>
       </c>
       <c r="AR2" t="n">
-        <v>185404.992</v>
+        <v>231916</v>
       </c>
       <c r="AS2" t="n">
-        <v>211156.992</v>
+        <v>245110</v>
       </c>
       <c r="AT2" t="n">
-        <v>213206</v>
+        <v>256468.992</v>
       </c>
       <c r="AU2" t="n">
-        <v>231916</v>
+        <v>236168</v>
       </c>
       <c r="AV2" t="n">
-        <v>245110</v>
+        <v>245659.008</v>
       </c>
       <c r="AW2" t="n">
-        <v>256468.992</v>
+        <v>275871.008</v>
       </c>
       <c r="AX2" t="n">
-        <v>236168</v>
+        <v>308199.008</v>
       </c>
       <c r="AY2" t="n">
-        <v>245659.008</v>
+        <v>319471.008</v>
       </c>
       <c r="AZ2" t="n">
-        <v>275871.008</v>
+        <v>303303.008</v>
       </c>
       <c r="BA2" t="n">
-        <v>308199.008</v>
+        <v>300900</v>
       </c>
       <c r="BB2" t="n">
-        <v>319471.008</v>
+        <v>330257.984</v>
       </c>
       <c r="BC2" t="n">
-        <v>303303.008</v>
+        <v>354766.016</v>
       </c>
       <c r="BD2" t="n">
-        <v>300900</v>
+        <v>426412</v>
       </c>
       <c r="BE2" t="n">
-        <v>330257.984</v>
+        <v>553107.008</v>
       </c>
       <c r="BF2" t="n">
-        <v>354766.016</v>
+        <v>528628</v>
       </c>
       <c r="BG2" t="n">
-        <v>426412</v>
+        <v>500809.984</v>
       </c>
       <c r="BH2" t="n">
-        <v>553107.008</v>
+        <v>527609.9840000001</v>
       </c>
       <c r="BI2" t="n">
-        <v>528628</v>
+        <v>563062.0159999999</v>
       </c>
     </row>
     <row r="3">
@@ -934,184 +934,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35723</v>
+        <v>48279</v>
       </c>
       <c r="C3" t="n">
-        <v>40202</v>
+        <v>57370</v>
       </c>
       <c r="D3" t="n">
-        <v>50966</v>
+        <v>61234</v>
       </c>
       <c r="E3" t="n">
-        <v>48279</v>
+        <v>50840</v>
       </c>
       <c r="F3" t="n">
-        <v>57370</v>
+        <v>62789</v>
       </c>
       <c r="G3" t="n">
-        <v>61234</v>
+        <v>66834</v>
       </c>
       <c r="H3" t="n">
-        <v>50840</v>
+        <v>67986</v>
       </c>
       <c r="I3" t="n">
-        <v>62789</v>
+        <v>66855</v>
       </c>
       <c r="J3" t="n">
-        <v>66834</v>
+        <v>82792</v>
       </c>
       <c r="K3" t="n">
-        <v>67986</v>
+        <v>104690</v>
       </c>
       <c r="L3" t="n">
-        <v>66855</v>
+        <v>119933</v>
       </c>
       <c r="M3" t="n">
-        <v>82792</v>
+        <v>118820</v>
       </c>
       <c r="N3" t="n">
-        <v>104690</v>
+        <v>147224</v>
       </c>
       <c r="O3" t="n">
-        <v>119933</v>
+        <v>159839.008</v>
       </c>
       <c r="P3" t="n">
-        <v>118820</v>
+        <v>103761</v>
       </c>
       <c r="Q3" t="n">
-        <v>147224</v>
+        <v>95794</v>
       </c>
       <c r="R3" t="n">
-        <v>159839.008</v>
+        <v>112572</v>
       </c>
       <c r="S3" t="n">
-        <v>103761</v>
+        <v>126459</v>
       </c>
       <c r="T3" t="n">
-        <v>95794</v>
+        <v>125040</v>
       </c>
       <c r="U3" t="n">
-        <v>112572</v>
+        <v>120786</v>
       </c>
       <c r="V3" t="n">
-        <v>126459</v>
+        <v>121839</v>
       </c>
       <c r="W3" t="n">
-        <v>125040</v>
+        <v>104480</v>
       </c>
       <c r="X3" t="n">
-        <v>120786</v>
+        <v>118918</v>
       </c>
       <c r="Y3" t="n">
-        <v>121839</v>
+        <v>124030</v>
       </c>
       <c r="Z3" t="n">
-        <v>104480</v>
+        <v>108338</v>
       </c>
       <c r="AA3" t="n">
-        <v>118918</v>
+        <v>106460</v>
       </c>
       <c r="AB3" t="n">
-        <v>124030</v>
+        <v>110431</v>
       </c>
       <c r="AC3" t="n">
-        <v>108338</v>
+        <v>111738</v>
       </c>
       <c r="AD3" t="n">
-        <v>106460</v>
+        <v>130158</v>
       </c>
       <c r="AE3" t="n">
-        <v>110431</v>
+        <v>123097</v>
       </c>
       <c r="AF3" t="n">
-        <v>111738</v>
+        <v>114266</v>
       </c>
       <c r="AG3" t="n">
-        <v>130158</v>
+        <v>122287</v>
       </c>
       <c r="AH3" t="n">
-        <v>123097</v>
+        <v>131723</v>
       </c>
       <c r="AI3" t="n">
-        <v>114266</v>
+        <v>127884</v>
       </c>
       <c r="AJ3" t="n">
-        <v>122287</v>
+        <v>128084</v>
       </c>
       <c r="AK3" t="n">
-        <v>131723</v>
+        <v>155612.992</v>
       </c>
       <c r="AL3" t="n">
-        <v>127884</v>
+        <v>155976</v>
       </c>
       <c r="AM3" t="n">
-        <v>128084</v>
+        <v>155004</v>
       </c>
       <c r="AN3" t="n">
-        <v>155612.992</v>
+        <v>142504</v>
       </c>
       <c r="AO3" t="n">
-        <v>155976</v>
+        <v>160708.992</v>
       </c>
       <c r="AP3" t="n">
-        <v>155004</v>
+        <v>181154</v>
       </c>
       <c r="AQ3" t="n">
-        <v>142504</v>
+        <v>178024.992</v>
       </c>
       <c r="AR3" t="n">
-        <v>160708.992</v>
+        <v>193948.992</v>
       </c>
       <c r="AS3" t="n">
-        <v>181154</v>
+        <v>198104.992</v>
       </c>
       <c r="AT3" t="n">
-        <v>178024.992</v>
+        <v>207924.992</v>
       </c>
       <c r="AU3" t="n">
-        <v>193948.992</v>
+        <v>189600</v>
       </c>
       <c r="AV3" t="n">
-        <v>198104.992</v>
+        <v>198956</v>
       </c>
       <c r="AW3" t="n">
-        <v>207924.992</v>
+        <v>220132</v>
       </c>
       <c r="AX3" t="n">
-        <v>189600</v>
+        <v>254100.992</v>
       </c>
       <c r="AY3" t="n">
-        <v>198956</v>
+        <v>262840.992</v>
       </c>
       <c r="AZ3" t="n">
-        <v>220132</v>
+        <v>245467.008</v>
       </c>
       <c r="BA3" t="n">
-        <v>254100.992</v>
+        <v>237484.992</v>
       </c>
       <c r="BB3" t="n">
-        <v>262840.992</v>
+        <v>265178</v>
       </c>
       <c r="BC3" t="n">
-        <v>245467.008</v>
+        <v>287900.992</v>
       </c>
       <c r="BD3" t="n">
-        <v>237484.992</v>
+        <v>354264</v>
       </c>
       <c r="BE3" t="n">
-        <v>265178</v>
+        <v>467215.008</v>
       </c>
       <c r="BF3" t="n">
-        <v>287900.992</v>
+        <v>438848</v>
       </c>
       <c r="BG3" t="n">
-        <v>354264</v>
+        <v>406004</v>
       </c>
       <c r="BH3" t="n">
-        <v>467215.008</v>
+        <v>429544.992</v>
       </c>
       <c r="BI3" t="n">
-        <v>438848</v>
+        <v>465603.008</v>
       </c>
     </row>
     <row r="4">
@@ -1121,184 +1121,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5511</v>
+        <v>4966</v>
       </c>
       <c r="C4" t="n">
-        <v>3340</v>
+        <v>2616</v>
       </c>
       <c r="D4" t="n">
-        <v>8411</v>
+        <v>4156</v>
       </c>
       <c r="E4" t="n">
-        <v>4966</v>
+        <v>3294</v>
       </c>
       <c r="F4" t="n">
-        <v>2616</v>
+        <v>1195</v>
       </c>
       <c r="G4" t="n">
-        <v>4156</v>
+        <v>7214</v>
       </c>
       <c r="H4" t="n">
-        <v>3294</v>
+        <v>815</v>
       </c>
       <c r="I4" t="n">
-        <v>1195</v>
+        <v>4197</v>
       </c>
       <c r="J4" t="n">
-        <v>7214</v>
+        <v>9328</v>
       </c>
       <c r="K4" t="n">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>4197</v>
+        <v>6047</v>
       </c>
       <c r="M4" t="n">
-        <v>9328</v>
+        <v>2915</v>
       </c>
       <c r="N4" t="n">
-        <v>431</v>
+        <v>8339</v>
       </c>
       <c r="O4" t="n">
-        <v>6047</v>
+        <v>1390</v>
       </c>
       <c r="P4" t="n">
-        <v>2915</v>
+        <v>2479</v>
       </c>
       <c r="Q4" t="n">
-        <v>8339</v>
+        <v>1638</v>
       </c>
       <c r="R4" t="n">
-        <v>1390</v>
+        <v>6527</v>
       </c>
       <c r="S4" t="n">
-        <v>2479</v>
+        <v>751</v>
       </c>
       <c r="T4" t="n">
-        <v>1638</v>
+        <v>1392</v>
       </c>
       <c r="U4" t="n">
-        <v>6527</v>
+        <v>2874</v>
       </c>
       <c r="V4" t="n">
-        <v>751</v>
+        <v>2285</v>
       </c>
       <c r="W4" t="n">
-        <v>1392</v>
+        <v>5368</v>
       </c>
       <c r="X4" t="n">
-        <v>2874</v>
+        <v>4276</v>
       </c>
       <c r="Y4" t="n">
-        <v>2285</v>
+        <v>9903</v>
       </c>
       <c r="Z4" t="n">
-        <v>5368</v>
+        <v>24460</v>
       </c>
       <c r="AA4" t="n">
-        <v>4276</v>
+        <v>18097</v>
       </c>
       <c r="AB4" t="n">
-        <v>9903</v>
+        <v>25241</v>
       </c>
       <c r="AC4" t="n">
-        <v>24460</v>
+        <v>31963</v>
       </c>
       <c r="AD4" t="n">
-        <v>18097</v>
+        <v>47145</v>
       </c>
       <c r="AE4" t="n">
-        <v>25241</v>
+        <v>48403</v>
       </c>
       <c r="AF4" t="n">
-        <v>31963</v>
+        <v>33227</v>
       </c>
       <c r="AG4" t="n">
-        <v>47145</v>
+        <v>52197</v>
       </c>
       <c r="AH4" t="n">
-        <v>48403</v>
+        <v>50347</v>
       </c>
       <c r="AI4" t="n">
-        <v>33227</v>
+        <v>51517</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52197</v>
+        <v>46915</v>
       </c>
       <c r="AK4" t="n">
-        <v>50347</v>
+        <v>59193</v>
       </c>
       <c r="AL4" t="n">
-        <v>51517</v>
+        <v>60164</v>
       </c>
       <c r="AM4" t="n">
-        <v>46915</v>
+        <v>48190</v>
       </c>
       <c r="AN4" t="n">
-        <v>59193</v>
+        <v>40698</v>
       </c>
       <c r="AO4" t="n">
-        <v>60164</v>
+        <v>50321</v>
       </c>
       <c r="AP4" t="n">
-        <v>48190</v>
+        <v>60963</v>
       </c>
       <c r="AQ4" t="n">
-        <v>40698</v>
+        <v>41667</v>
       </c>
       <c r="AR4" t="n">
-        <v>50321</v>
+        <v>35534</v>
       </c>
       <c r="AS4" t="n">
-        <v>60963</v>
+        <v>39807</v>
       </c>
       <c r="AT4" t="n">
-        <v>41667</v>
+        <v>46881</v>
       </c>
       <c r="AU4" t="n">
-        <v>35534</v>
+        <v>57451</v>
       </c>
       <c r="AV4" t="n">
-        <v>39807</v>
+        <v>68910</v>
       </c>
       <c r="AW4" t="n">
-        <v>46881</v>
+        <v>93665</v>
       </c>
       <c r="AX4" t="n">
-        <v>57451</v>
+        <v>70878</v>
       </c>
       <c r="AY4" t="n">
-        <v>68910</v>
+        <v>52639</v>
       </c>
       <c r="AZ4" t="n">
-        <v>93665</v>
+        <v>36233</v>
       </c>
       <c r="BA4" t="n">
-        <v>70878</v>
+        <v>15826</v>
       </c>
       <c r="BB4" t="n">
-        <v>52639</v>
+        <v>38200</v>
       </c>
       <c r="BC4" t="n">
-        <v>36233</v>
+        <v>28754</v>
       </c>
       <c r="BD4" t="n">
-        <v>15826</v>
+        <v>50026</v>
       </c>
       <c r="BE4" t="n">
-        <v>38200</v>
+        <v>46013</v>
       </c>
       <c r="BF4" t="n">
-        <v>28754</v>
+        <v>15301</v>
       </c>
       <c r="BG4" t="n">
-        <v>50026</v>
+        <v>57105</v>
       </c>
       <c r="BH4" t="n">
-        <v>46013</v>
+        <v>37402</v>
       </c>
       <c r="BI4" t="n">
-        <v>15301</v>
+        <v>37279</v>
       </c>
     </row>
     <row r="5">
@@ -1495,184 +1495,184 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20037</v>
+        <v>31916</v>
       </c>
       <c r="C6" t="n">
-        <v>27086</v>
+        <v>34238</v>
       </c>
       <c r="D6" t="n">
-        <v>31083</v>
+        <v>38414</v>
       </c>
       <c r="E6" t="n">
-        <v>31916</v>
+        <v>33157</v>
       </c>
       <c r="F6" t="n">
-        <v>34238</v>
+        <v>45841</v>
       </c>
       <c r="G6" t="n">
-        <v>38414</v>
+        <v>41024</v>
       </c>
       <c r="H6" t="n">
-        <v>33157</v>
+        <v>50355</v>
       </c>
       <c r="I6" t="n">
-        <v>45841</v>
+        <v>48988</v>
       </c>
       <c r="J6" t="n">
-        <v>41024</v>
+        <v>57948</v>
       </c>
       <c r="K6" t="n">
-        <v>50355</v>
+        <v>72223</v>
       </c>
       <c r="L6" t="n">
-        <v>48988</v>
+        <v>81160</v>
       </c>
       <c r="M6" t="n">
-        <v>57948</v>
+        <v>80184</v>
       </c>
       <c r="N6" t="n">
-        <v>72223</v>
+        <v>81246</v>
       </c>
       <c r="O6" t="n">
-        <v>81160</v>
+        <v>104167</v>
       </c>
       <c r="P6" t="n">
-        <v>80184</v>
+        <v>64933</v>
       </c>
       <c r="Q6" t="n">
-        <v>81246</v>
+        <v>57239</v>
       </c>
       <c r="R6" t="n">
-        <v>104167</v>
+        <v>64862</v>
       </c>
       <c r="S6" t="n">
-        <v>64933</v>
+        <v>86151</v>
       </c>
       <c r="T6" t="n">
-        <v>57239</v>
+        <v>92499</v>
       </c>
       <c r="U6" t="n">
-        <v>64862</v>
+        <v>80011</v>
       </c>
       <c r="V6" t="n">
-        <v>86151</v>
+        <v>82391</v>
       </c>
       <c r="W6" t="n">
-        <v>92499</v>
+        <v>61336</v>
       </c>
       <c r="X6" t="n">
-        <v>80011</v>
+        <v>78471</v>
       </c>
       <c r="Y6" t="n">
-        <v>82391</v>
+        <v>78369</v>
       </c>
       <c r="Z6" t="n">
-        <v>61336</v>
+        <v>52158</v>
       </c>
       <c r="AA6" t="n">
-        <v>78471</v>
+        <v>54265</v>
       </c>
       <c r="AB6" t="n">
-        <v>78369</v>
+        <v>44009</v>
       </c>
       <c r="AC6" t="n">
-        <v>52158</v>
+        <v>44931</v>
       </c>
       <c r="AD6" t="n">
-        <v>54265</v>
+        <v>53189</v>
       </c>
       <c r="AE6" t="n">
-        <v>44009</v>
+        <v>44108</v>
       </c>
       <c r="AF6" t="n">
-        <v>44931</v>
+        <v>51195</v>
       </c>
       <c r="AG6" t="n">
-        <v>53189</v>
+        <v>44455</v>
       </c>
       <c r="AH6" t="n">
-        <v>44108</v>
+        <v>52889</v>
       </c>
       <c r="AI6" t="n">
-        <v>51195</v>
+        <v>50495</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44455</v>
+        <v>52104</v>
       </c>
       <c r="AK6" t="n">
-        <v>52889</v>
+        <v>67236</v>
       </c>
       <c r="AL6" t="n">
-        <v>50495</v>
+        <v>61392</v>
       </c>
       <c r="AM6" t="n">
-        <v>52104</v>
+        <v>75052</v>
       </c>
       <c r="AN6" t="n">
-        <v>67236</v>
+        <v>65824</v>
       </c>
       <c r="AO6" t="n">
-        <v>61392</v>
+        <v>78350</v>
       </c>
       <c r="AP6" t="n">
-        <v>75052</v>
+        <v>76998</v>
       </c>
       <c r="AQ6" t="n">
-        <v>65824</v>
+        <v>88039</v>
       </c>
       <c r="AR6" t="n">
-        <v>78350</v>
+        <v>97295</v>
       </c>
       <c r="AS6" t="n">
-        <v>76998</v>
+        <v>88419</v>
       </c>
       <c r="AT6" t="n">
-        <v>88039</v>
+        <v>89521</v>
       </c>
       <c r="AU6" t="n">
-        <v>97295</v>
+        <v>70443</v>
       </c>
       <c r="AV6" t="n">
-        <v>88419</v>
+        <v>91905</v>
       </c>
       <c r="AW6" t="n">
-        <v>89521</v>
+        <v>82109</v>
       </c>
       <c r="AX6" t="n">
-        <v>70443</v>
+        <v>109669</v>
       </c>
       <c r="AY6" t="n">
-        <v>91905</v>
+        <v>126892</v>
       </c>
       <c r="AZ6" t="n">
-        <v>82109</v>
+        <v>133453</v>
       </c>
       <c r="BA6" t="n">
-        <v>109669</v>
+        <v>127312</v>
       </c>
       <c r="BB6" t="n">
-        <v>126892</v>
+        <v>125741</v>
       </c>
       <c r="BC6" t="n">
-        <v>133453</v>
+        <v>154588.992</v>
       </c>
       <c r="BD6" t="n">
-        <v>127312</v>
+        <v>190148</v>
       </c>
       <c r="BE6" t="n">
-        <v>125741</v>
+        <v>191216</v>
       </c>
       <c r="BF6" t="n">
-        <v>154588.992</v>
+        <v>189226</v>
       </c>
       <c r="BG6" t="n">
-        <v>190148</v>
+        <v>190908</v>
       </c>
       <c r="BH6" t="n">
-        <v>191216</v>
+        <v>174208.992</v>
       </c>
       <c r="BI6" t="n">
-        <v>189226</v>
+        <v>225666</v>
       </c>
     </row>
     <row r="7">
@@ -1682,184 +1682,184 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9805</v>
+        <v>11116</v>
       </c>
       <c r="C7" t="n">
-        <v>9565</v>
+        <v>17323</v>
       </c>
       <c r="D7" t="n">
-        <v>10962</v>
+        <v>15210</v>
       </c>
       <c r="E7" t="n">
-        <v>11116</v>
+        <v>14217</v>
       </c>
       <c r="F7" t="n">
-        <v>17323</v>
+        <v>15409</v>
       </c>
       <c r="G7" t="n">
-        <v>15210</v>
+        <v>18268</v>
       </c>
       <c r="H7" t="n">
-        <v>14217</v>
+        <v>16523</v>
       </c>
       <c r="I7" t="n">
-        <v>15409</v>
+        <v>13429</v>
       </c>
       <c r="J7" t="n">
-        <v>18268</v>
+        <v>15067</v>
       </c>
       <c r="K7" t="n">
-        <v>16523</v>
+        <v>24742</v>
       </c>
       <c r="L7" t="n">
-        <v>13429</v>
+        <v>27481</v>
       </c>
       <c r="M7" t="n">
-        <v>15067</v>
+        <v>28054</v>
       </c>
       <c r="N7" t="n">
-        <v>24742</v>
+        <v>46492</v>
       </c>
       <c r="O7" t="n">
-        <v>27481</v>
+        <v>43079</v>
       </c>
       <c r="P7" t="n">
-        <v>28054</v>
+        <v>30837</v>
       </c>
       <c r="Q7" t="n">
-        <v>46492</v>
+        <v>31604</v>
       </c>
       <c r="R7" t="n">
-        <v>43079</v>
+        <v>35760</v>
       </c>
       <c r="S7" t="n">
-        <v>30837</v>
+        <v>32942</v>
       </c>
       <c r="T7" t="n">
-        <v>31604</v>
+        <v>27182</v>
       </c>
       <c r="U7" t="n">
-        <v>35760</v>
+        <v>33087</v>
       </c>
       <c r="V7" t="n">
-        <v>32942</v>
+        <v>31150</v>
       </c>
       <c r="W7" t="n">
-        <v>27182</v>
+        <v>28913</v>
       </c>
       <c r="X7" t="n">
-        <v>33087</v>
+        <v>28897</v>
       </c>
       <c r="Y7" t="n">
-        <v>31150</v>
+        <v>27335</v>
       </c>
       <c r="Z7" t="n">
-        <v>28913</v>
+        <v>22681</v>
       </c>
       <c r="AA7" t="n">
-        <v>28897</v>
+        <v>23809</v>
       </c>
       <c r="AB7" t="n">
-        <v>27335</v>
+        <v>29665</v>
       </c>
       <c r="AC7" t="n">
-        <v>22681</v>
+        <v>30531</v>
       </c>
       <c r="AD7" t="n">
-        <v>23809</v>
+        <v>25282</v>
       </c>
       <c r="AE7" t="n">
-        <v>29665</v>
+        <v>24154</v>
       </c>
       <c r="AF7" t="n">
-        <v>30531</v>
+        <v>21662</v>
       </c>
       <c r="AG7" t="n">
-        <v>25282</v>
+        <v>20143</v>
       </c>
       <c r="AH7" t="n">
-        <v>24154</v>
+        <v>21822</v>
       </c>
       <c r="AI7" t="n">
-        <v>21662</v>
+        <v>18843</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20143</v>
+        <v>19369</v>
       </c>
       <c r="AK7" t="n">
-        <v>21822</v>
+        <v>22788</v>
       </c>
       <c r="AL7" t="n">
-        <v>18843</v>
+        <v>25374</v>
       </c>
       <c r="AM7" t="n">
-        <v>19369</v>
+        <v>22653</v>
       </c>
       <c r="AN7" t="n">
-        <v>22788</v>
+        <v>23036</v>
       </c>
       <c r="AO7" t="n">
-        <v>25374</v>
+        <v>24746</v>
       </c>
       <c r="AP7" t="n">
-        <v>22653</v>
+        <v>31790</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23036</v>
+        <v>31394</v>
       </c>
       <c r="AR7" t="n">
-        <v>24746</v>
+        <v>30857</v>
       </c>
       <c r="AS7" t="n">
-        <v>31790</v>
+        <v>55238</v>
       </c>
       <c r="AT7" t="n">
-        <v>31394</v>
+        <v>53534</v>
       </c>
       <c r="AU7" t="n">
-        <v>30857</v>
+        <v>39819</v>
       </c>
       <c r="AV7" t="n">
-        <v>55238</v>
+        <v>29130</v>
       </c>
       <c r="AW7" t="n">
-        <v>53534</v>
+        <v>31577</v>
       </c>
       <c r="AX7" t="n">
-        <v>39819</v>
+        <v>54679</v>
       </c>
       <c r="AY7" t="n">
-        <v>29130</v>
+        <v>58287</v>
       </c>
       <c r="AZ7" t="n">
-        <v>31577</v>
+        <v>51549</v>
       </c>
       <c r="BA7" t="n">
-        <v>54679</v>
+        <v>68597</v>
       </c>
       <c r="BB7" t="n">
-        <v>58287</v>
+        <v>68038</v>
       </c>
       <c r="BC7" t="n">
-        <v>51549</v>
+        <v>68427</v>
       </c>
       <c r="BD7" t="n">
-        <v>68597</v>
+        <v>88864</v>
       </c>
       <c r="BE7" t="n">
-        <v>68038</v>
+        <v>196944.992</v>
       </c>
       <c r="BF7" t="n">
-        <v>68427</v>
+        <v>193219.008</v>
       </c>
       <c r="BG7" t="n">
-        <v>88864</v>
+        <v>141172.992</v>
       </c>
       <c r="BH7" t="n">
-        <v>196944.992</v>
+        <v>187074</v>
       </c>
       <c r="BI7" t="n">
-        <v>193219.008</v>
+        <v>172027.008</v>
       </c>
     </row>
     <row r="8">
@@ -2083,157 +2083,157 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6562</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4444</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6904</v>
       </c>
       <c r="N9" t="n">
-        <v>6562</v>
+        <v>10611</v>
       </c>
       <c r="O9" t="n">
-        <v>4444</v>
+        <v>10720</v>
       </c>
       <c r="P9" t="n">
-        <v>6904</v>
+        <v>5051</v>
       </c>
       <c r="Q9" t="n">
-        <v>10611</v>
+        <v>4875</v>
       </c>
       <c r="R9" t="n">
-        <v>10720</v>
+        <v>5154</v>
       </c>
       <c r="S9" t="n">
-        <v>5051</v>
+        <v>6152</v>
       </c>
       <c r="T9" t="n">
-        <v>4875</v>
+        <v>2855</v>
       </c>
       <c r="U9" t="n">
-        <v>5154</v>
+        <v>4331</v>
       </c>
       <c r="V9" t="n">
-        <v>6152</v>
+        <v>5580</v>
       </c>
       <c r="W9" t="n">
-        <v>2855</v>
+        <v>7185</v>
       </c>
       <c r="X9" t="n">
-        <v>4331</v>
+        <v>5640</v>
       </c>
       <c r="Y9" t="n">
-        <v>5580</v>
+        <v>6832</v>
       </c>
       <c r="Z9" t="n">
-        <v>7185</v>
+        <v>8498</v>
       </c>
       <c r="AA9" t="n">
-        <v>5640</v>
+        <v>9106</v>
       </c>
       <c r="AB9" t="n">
-        <v>6832</v>
+        <v>10614</v>
       </c>
       <c r="AC9" t="n">
-        <v>8498</v>
+        <v>3255</v>
       </c>
       <c r="AD9" t="n">
-        <v>9106</v>
+        <v>3880</v>
       </c>
       <c r="AE9" t="n">
-        <v>10614</v>
+        <v>5132</v>
       </c>
       <c r="AF9" t="n">
-        <v>3255</v>
+        <v>6869</v>
       </c>
       <c r="AG9" t="n">
-        <v>3880</v>
+        <v>4152</v>
       </c>
       <c r="AH9" t="n">
-        <v>5132</v>
+        <v>5626</v>
       </c>
       <c r="AI9" t="n">
-        <v>6869</v>
+        <v>6007</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4152</v>
+        <v>8267</v>
       </c>
       <c r="AK9" t="n">
-        <v>5626</v>
+        <v>4048</v>
       </c>
       <c r="AL9" t="n">
-        <v>6007</v>
+        <v>6294</v>
       </c>
       <c r="AM9" t="n">
-        <v>8267</v>
+        <v>7095</v>
       </c>
       <c r="AN9" t="n">
-        <v>4048</v>
+        <v>9261</v>
       </c>
       <c r="AO9" t="n">
-        <v>6294</v>
+        <v>5878</v>
       </c>
       <c r="AP9" t="n">
-        <v>7095</v>
+        <v>9747</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9261</v>
+        <v>12394</v>
       </c>
       <c r="AR9" t="n">
-        <v>5878</v>
+        <v>15290</v>
       </c>
       <c r="AS9" t="n">
-        <v>9747</v>
+        <v>13146</v>
       </c>
       <c r="AT9" t="n">
-        <v>12394</v>
+        <v>13821</v>
       </c>
       <c r="AU9" t="n">
-        <v>15290</v>
+        <v>13600</v>
       </c>
       <c r="AV9" t="n">
-        <v>13146</v>
+        <v>5111</v>
       </c>
       <c r="AW9" t="n">
-        <v>13821</v>
+        <v>10254</v>
       </c>
       <c r="AX9" t="n">
-        <v>13600</v>
+        <v>15318</v>
       </c>
       <c r="AY9" t="n">
-        <v>5111</v>
+        <v>19774</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10254</v>
+        <v>14912</v>
       </c>
       <c r="BA9" t="n">
-        <v>15318</v>
+        <v>21425</v>
       </c>
       <c r="BB9" t="n">
-        <v>19774</v>
+        <v>24254</v>
       </c>
       <c r="BC9" t="n">
-        <v>14912</v>
+        <v>29499</v>
       </c>
       <c r="BD9" t="n">
-        <v>21425</v>
+        <v>18487</v>
       </c>
       <c r="BE9" t="n">
-        <v>24254</v>
+        <v>28153</v>
       </c>
       <c r="BF9" t="n">
-        <v>29499</v>
+        <v>36378</v>
       </c>
       <c r="BG9" t="n">
-        <v>18487</v>
+        <v>13547</v>
       </c>
       <c r="BH9" t="n">
-        <v>28153</v>
+        <v>23870</v>
       </c>
       <c r="BI9" t="n">
-        <v>36378</v>
+        <v>27146</v>
       </c>
     </row>
     <row r="10">
@@ -2273,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -2342,79 +2342,79 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="AP10" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="AR10" t="n">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AU10" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="BA10" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>295</v>
+        <v>530</v>
       </c>
       <c r="BC10" t="n">
-        <v>217</v>
+        <v>376</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="BE10" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
@@ -2430,184 +2430,184 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="C11" t="n">
-        <v>211</v>
+        <v>3193</v>
       </c>
       <c r="D11" t="n">
-        <v>510</v>
+        <v>3454</v>
       </c>
       <c r="E11" t="n">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="F11" t="n">
-        <v>3193</v>
+        <v>344</v>
       </c>
       <c r="G11" t="n">
-        <v>3454</v>
+        <v>328</v>
       </c>
       <c r="H11" t="n">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="I11" t="n">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="J11" t="n">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>732</v>
       </c>
       <c r="L11" t="n">
-        <v>241</v>
+        <v>753</v>
       </c>
       <c r="M11" t="n">
-        <v>449</v>
+        <v>725</v>
       </c>
       <c r="N11" t="n">
-        <v>732</v>
+        <v>536</v>
       </c>
       <c r="O11" t="n">
-        <v>753</v>
+        <v>483</v>
       </c>
       <c r="P11" t="n">
-        <v>725</v>
+        <v>461</v>
       </c>
       <c r="Q11" t="n">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="R11" t="n">
+        <v>269</v>
+      </c>
+      <c r="S11" t="n">
+        <v>463</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1112</v>
+      </c>
+      <c r="U11" t="n">
         <v>483</v>
       </c>
-      <c r="S11" t="n">
-        <v>461</v>
-      </c>
-      <c r="T11" t="n">
-        <v>438</v>
-      </c>
-      <c r="U11" t="n">
-        <v>269</v>
-      </c>
       <c r="V11" t="n">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="W11" t="n">
-        <v>1112</v>
+        <v>1678</v>
       </c>
       <c r="X11" t="n">
-        <v>483</v>
+        <v>1634</v>
       </c>
       <c r="Y11" t="n">
-        <v>433</v>
+        <v>1591</v>
       </c>
       <c r="Z11" t="n">
-        <v>1678</v>
+        <v>541</v>
       </c>
       <c r="AA11" t="n">
-        <v>1634</v>
+        <v>1183</v>
       </c>
       <c r="AB11" t="n">
-        <v>1591</v>
+        <v>902</v>
       </c>
       <c r="AC11" t="n">
-        <v>541</v>
+        <v>1058</v>
       </c>
       <c r="AD11" t="n">
-        <v>1183</v>
+        <v>662</v>
       </c>
       <c r="AE11" t="n">
-        <v>902</v>
+        <v>1300</v>
       </c>
       <c r="AF11" t="n">
-        <v>1058</v>
+        <v>1313</v>
       </c>
       <c r="AG11" t="n">
-        <v>662</v>
+        <v>1340</v>
       </c>
       <c r="AH11" t="n">
-        <v>1300</v>
+        <v>1039</v>
       </c>
       <c r="AI11" t="n">
-        <v>1313</v>
+        <v>845</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1340</v>
+        <v>1305</v>
       </c>
       <c r="AK11" t="n">
-        <v>1039</v>
+        <v>2348</v>
       </c>
       <c r="AL11" t="n">
-        <v>845</v>
+        <v>2752</v>
       </c>
       <c r="AM11" t="n">
-        <v>1305</v>
+        <v>1969</v>
       </c>
       <c r="AN11" t="n">
-        <v>2348</v>
+        <v>3343</v>
       </c>
       <c r="AO11" t="n">
-        <v>2752</v>
+        <v>1172</v>
       </c>
       <c r="AP11" t="n">
-        <v>1969</v>
+        <v>1656</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3343</v>
+        <v>4128</v>
       </c>
       <c r="AR11" t="n">
-        <v>1172</v>
+        <v>14737</v>
       </c>
       <c r="AS11" t="n">
-        <v>1656</v>
+        <v>1495</v>
       </c>
       <c r="AT11" t="n">
-        <v>4128</v>
+        <v>3764</v>
       </c>
       <c r="AU11" t="n">
-        <v>14737</v>
+        <v>8287</v>
       </c>
       <c r="AV11" t="n">
-        <v>1495</v>
+        <v>3900</v>
       </c>
       <c r="AW11" t="n">
-        <v>3764</v>
+        <v>2527</v>
       </c>
       <c r="AX11" t="n">
-        <v>8287</v>
+        <v>3436</v>
       </c>
       <c r="AY11" t="n">
-        <v>3900</v>
+        <v>4954</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2527</v>
+        <v>9103</v>
       </c>
       <c r="BA11" t="n">
-        <v>3436</v>
+        <v>4325</v>
       </c>
       <c r="BB11" t="n">
-        <v>4954</v>
+        <v>8415</v>
       </c>
       <c r="BC11" t="n">
-        <v>9103</v>
+        <v>6256</v>
       </c>
       <c r="BD11" t="n">
-        <v>4325</v>
+        <v>6456</v>
       </c>
       <c r="BE11" t="n">
-        <v>8415</v>
+        <v>4888</v>
       </c>
       <c r="BF11" t="n">
-        <v>6256</v>
+        <v>4724</v>
       </c>
       <c r="BG11" t="n">
-        <v>6456</v>
+        <v>2928</v>
       </c>
       <c r="BH11" t="n">
-        <v>4888</v>
+        <v>6990</v>
       </c>
       <c r="BI11" t="n">
-        <v>4724</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="12">
@@ -2617,22 +2617,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="C12" t="n">
-        <v>1118</v>
+        <v>738</v>
       </c>
       <c r="D12" t="n">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2647,55 +2647,55 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P12" t="n">
         <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="R12" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="T12" t="n">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="U12" t="n">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="V12" t="n">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="W12" t="n">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2746,34 +2746,34 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>7390</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>8661</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>6975</v>
       </c>
       <c r="AV12" t="n">
-        <v>7390</v>
+        <v>5782</v>
       </c>
       <c r="AW12" t="n">
-        <v>8661</v>
+        <v>5819</v>
       </c>
       <c r="AX12" t="n">
-        <v>6975</v>
+        <v>3738</v>
       </c>
       <c r="AY12" t="n">
-        <v>5782</v>
+        <v>3789</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5819</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>3738</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>3789</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="C15" t="n">
-        <v>1118</v>
+        <v>738</v>
       </c>
       <c r="D15" t="n">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -3214,49 +3214,49 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="R15" t="n">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="T15" t="n">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="U15" t="n">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="V15" t="n">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -4330,19 +4330,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -4487,184 +4487,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3386</v>
+        <v>3713</v>
       </c>
       <c r="C22" t="n">
-        <v>3523</v>
+        <v>3895</v>
       </c>
       <c r="D22" t="n">
-        <v>3564</v>
+        <v>4046</v>
       </c>
       <c r="E22" t="n">
-        <v>3713</v>
+        <v>4176</v>
       </c>
       <c r="F22" t="n">
-        <v>3895</v>
+        <v>4197</v>
       </c>
       <c r="G22" t="n">
-        <v>4046</v>
+        <v>4129</v>
       </c>
       <c r="H22" t="n">
-        <v>4176</v>
+        <v>4148</v>
       </c>
       <c r="I22" t="n">
-        <v>4197</v>
+        <v>4297</v>
       </c>
       <c r="J22" t="n">
-        <v>4129</v>
+        <v>4320</v>
       </c>
       <c r="K22" t="n">
-        <v>4148</v>
+        <v>5077</v>
       </c>
       <c r="L22" t="n">
-        <v>4297</v>
+        <v>5233</v>
       </c>
       <c r="M22" t="n">
-        <v>4320</v>
+        <v>5438</v>
       </c>
       <c r="N22" t="n">
-        <v>5077</v>
+        <v>5485</v>
       </c>
       <c r="O22" t="n">
-        <v>5233</v>
+        <v>5908</v>
       </c>
       <c r="P22" t="n">
-        <v>5438</v>
+        <v>5823</v>
       </c>
       <c r="Q22" t="n">
-        <v>5485</v>
+        <v>5725</v>
       </c>
       <c r="R22" t="n">
-        <v>5908</v>
+        <v>5428</v>
       </c>
       <c r="S22" t="n">
-        <v>5823</v>
+        <v>5475</v>
       </c>
       <c r="T22" t="n">
-        <v>5725</v>
+        <v>5275</v>
       </c>
       <c r="U22" t="n">
-        <v>5428</v>
+        <v>5426</v>
       </c>
       <c r="V22" t="n">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="W22" t="n">
-        <v>5275</v>
+        <v>5696</v>
       </c>
       <c r="X22" t="n">
-        <v>5426</v>
+        <v>6042</v>
       </c>
       <c r="Y22" t="n">
-        <v>5476</v>
+        <v>6254</v>
       </c>
       <c r="Z22" t="n">
-        <v>5696</v>
+        <v>6362</v>
       </c>
       <c r="AA22" t="n">
-        <v>6042</v>
+        <v>7274</v>
       </c>
       <c r="AB22" t="n">
-        <v>6254</v>
+        <v>7739</v>
       </c>
       <c r="AC22" t="n">
-        <v>6362</v>
+        <v>6978</v>
       </c>
       <c r="AD22" t="n">
-        <v>7274</v>
+        <v>7161</v>
       </c>
       <c r="AE22" t="n">
-        <v>7739</v>
+        <v>7435</v>
       </c>
       <c r="AF22" t="n">
-        <v>6978</v>
+        <v>7743</v>
       </c>
       <c r="AG22" t="n">
-        <v>7161</v>
+        <v>7796</v>
       </c>
       <c r="AH22" t="n">
-        <v>7435</v>
+        <v>7764</v>
       </c>
       <c r="AI22" t="n">
-        <v>7743</v>
+        <v>2600</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7796</v>
+        <v>2588</v>
       </c>
       <c r="AK22" t="n">
-        <v>7764</v>
+        <v>2614</v>
       </c>
       <c r="AL22" t="n">
-        <v>2600</v>
+        <v>2641</v>
       </c>
       <c r="AM22" t="n">
-        <v>2588</v>
+        <v>2712</v>
       </c>
       <c r="AN22" t="n">
-        <v>2614</v>
+        <v>2768</v>
       </c>
       <c r="AO22" t="n">
-        <v>2641</v>
+        <v>2887</v>
       </c>
       <c r="AP22" t="n">
-        <v>2712</v>
+        <v>2899</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2768</v>
+        <v>2972</v>
       </c>
       <c r="AR22" t="n">
-        <v>2887</v>
+        <v>3028</v>
       </c>
       <c r="AS22" t="n">
-        <v>2899</v>
+        <v>3076</v>
       </c>
       <c r="AT22" t="n">
-        <v>2972</v>
+        <v>3142</v>
       </c>
       <c r="AU22" t="n">
-        <v>3028</v>
+        <v>3143</v>
       </c>
       <c r="AV22" t="n">
-        <v>3076</v>
+        <v>3200</v>
       </c>
       <c r="AW22" t="n">
-        <v>3142</v>
+        <v>3335</v>
       </c>
       <c r="AX22" t="n">
-        <v>3143</v>
+        <v>3351</v>
       </c>
       <c r="AY22" t="n">
-        <v>3200</v>
+        <v>3467</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3335</v>
+        <v>3609</v>
       </c>
       <c r="BA22" t="n">
-        <v>3351</v>
+        <v>3759</v>
       </c>
       <c r="BB22" t="n">
-        <v>3467</v>
+        <v>4077</v>
       </c>
       <c r="BC22" t="n">
-        <v>3609</v>
+        <v>4173</v>
       </c>
       <c r="BD22" t="n">
-        <v>3759</v>
+        <v>4345</v>
       </c>
       <c r="BE22" t="n">
-        <v>4077</v>
+        <v>4488</v>
       </c>
       <c r="BF22" t="n">
-        <v>4173</v>
+        <v>4655</v>
       </c>
       <c r="BG22" t="n">
-        <v>4345</v>
+        <v>4942</v>
       </c>
       <c r="BH22" t="n">
-        <v>4488</v>
+        <v>4979</v>
       </c>
       <c r="BI22" t="n">
-        <v>4655</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="23">
@@ -4674,184 +4674,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2633</v>
+        <v>2549</v>
       </c>
       <c r="C23" t="n">
-        <v>2676</v>
+        <v>2542</v>
       </c>
       <c r="D23" t="n">
-        <v>2588</v>
+        <v>2647</v>
       </c>
       <c r="E23" t="n">
-        <v>2549</v>
+        <v>6576</v>
       </c>
       <c r="F23" t="n">
-        <v>2542</v>
+        <v>6574</v>
       </c>
       <c r="G23" t="n">
-        <v>2647</v>
+        <v>6565</v>
       </c>
       <c r="H23" t="n">
-        <v>6576</v>
+        <v>6898</v>
       </c>
       <c r="I23" t="n">
-        <v>6574</v>
+        <v>7113</v>
       </c>
       <c r="J23" t="n">
-        <v>6565</v>
+        <v>7201</v>
       </c>
       <c r="K23" t="n">
-        <v>6898</v>
+        <v>7767</v>
       </c>
       <c r="L23" t="n">
-        <v>7113</v>
+        <v>7858</v>
       </c>
       <c r="M23" t="n">
-        <v>7201</v>
+        <v>8139</v>
       </c>
       <c r="N23" t="n">
-        <v>7767</v>
+        <v>8174</v>
       </c>
       <c r="O23" t="n">
-        <v>7858</v>
+        <v>8229</v>
       </c>
       <c r="P23" t="n">
-        <v>8139</v>
+        <v>8608</v>
       </c>
       <c r="Q23" t="n">
-        <v>8174</v>
+        <v>8659</v>
       </c>
       <c r="R23" t="n">
-        <v>8229</v>
+        <v>8656</v>
       </c>
       <c r="S23" t="n">
-        <v>8608</v>
+        <v>8662</v>
       </c>
       <c r="T23" t="n">
-        <v>8659</v>
+        <v>8549</v>
       </c>
       <c r="U23" t="n">
-        <v>8656</v>
+        <v>8227</v>
       </c>
       <c r="V23" t="n">
-        <v>8662</v>
+        <v>8213</v>
       </c>
       <c r="W23" t="n">
-        <v>8549</v>
+        <v>7986</v>
       </c>
       <c r="X23" t="n">
-        <v>8227</v>
+        <v>8237</v>
       </c>
       <c r="Y23" t="n">
-        <v>8213</v>
+        <v>8837</v>
       </c>
       <c r="Z23" t="n">
-        <v>7986</v>
+        <v>8783</v>
       </c>
       <c r="AA23" t="n">
-        <v>8237</v>
+        <v>8600</v>
       </c>
       <c r="AB23" t="n">
-        <v>8837</v>
+        <v>8462</v>
       </c>
       <c r="AC23" t="n">
-        <v>8783</v>
+        <v>8386</v>
       </c>
       <c r="AD23" t="n">
-        <v>8600</v>
+        <v>8901</v>
       </c>
       <c r="AE23" t="n">
-        <v>8462</v>
+        <v>8736</v>
       </c>
       <c r="AF23" t="n">
-        <v>8386</v>
+        <v>8906</v>
       </c>
       <c r="AG23" t="n">
-        <v>8901</v>
+        <v>8810</v>
       </c>
       <c r="AH23" t="n">
-        <v>8736</v>
+        <v>8829</v>
       </c>
       <c r="AI23" t="n">
-        <v>8906</v>
+        <v>8954</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8810</v>
+        <v>9409</v>
       </c>
       <c r="AK23" t="n">
-        <v>8829</v>
+        <v>10351</v>
       </c>
       <c r="AL23" t="n">
-        <v>8954</v>
+        <v>10716</v>
       </c>
       <c r="AM23" t="n">
-        <v>9409</v>
+        <v>11506</v>
       </c>
       <c r="AN23" t="n">
-        <v>10351</v>
+        <v>12469</v>
       </c>
       <c r="AO23" t="n">
-        <v>10716</v>
+        <v>15625</v>
       </c>
       <c r="AP23" t="n">
-        <v>11506</v>
+        <v>20920</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12469</v>
+        <v>26025</v>
       </c>
       <c r="AR23" t="n">
-        <v>15625</v>
+        <v>28755</v>
       </c>
       <c r="AS23" t="n">
-        <v>20920</v>
+        <v>30355</v>
       </c>
       <c r="AT23" t="n">
-        <v>26025</v>
+        <v>30557</v>
       </c>
       <c r="AU23" t="n">
-        <v>28755</v>
+        <v>30266</v>
       </c>
       <c r="AV23" t="n">
-        <v>30355</v>
+        <v>31537</v>
       </c>
       <c r="AW23" t="n">
-        <v>30557</v>
+        <v>33401</v>
       </c>
       <c r="AX23" t="n">
-        <v>30266</v>
+        <v>33825</v>
       </c>
       <c r="AY23" t="n">
-        <v>31537</v>
+        <v>36190</v>
       </c>
       <c r="AZ23" t="n">
-        <v>33401</v>
+        <v>41043</v>
       </c>
       <c r="BA23" t="n">
-        <v>33825</v>
+        <v>46472</v>
       </c>
       <c r="BB23" t="n">
-        <v>36190</v>
+        <v>47819</v>
       </c>
       <c r="BC23" t="n">
-        <v>41043</v>
+        <v>49508</v>
       </c>
       <c r="BD23" t="n">
-        <v>46472</v>
+        <v>54619</v>
       </c>
       <c r="BE23" t="n">
-        <v>47819</v>
+        <v>56187</v>
       </c>
       <c r="BF23" t="n">
-        <v>49508</v>
+        <v>59908</v>
       </c>
       <c r="BG23" t="n">
-        <v>54619</v>
+        <v>64647</v>
       </c>
       <c r="BH23" t="n">
-        <v>56187</v>
+        <v>67869</v>
       </c>
       <c r="BI23" t="n">
-        <v>59908</v>
+        <v>67313</v>
       </c>
     </row>
     <row r="24">
@@ -4876,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6184</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6184</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6184</v>
       </c>
       <c r="J24" t="n">
         <v>6184</v>
@@ -5002,13 +5002,13 @@
         <v>6184</v>
       </c>
       <c r="AW24" t="n">
-        <v>6184</v>
+        <v>13184</v>
       </c>
       <c r="AX24" t="n">
-        <v>6184</v>
+        <v>13184</v>
       </c>
       <c r="AY24" t="n">
-        <v>6184</v>
+        <v>13184</v>
       </c>
       <c r="AZ24" t="n">
         <v>13184</v>
@@ -5026,13 +5026,13 @@
         <v>13184</v>
       </c>
       <c r="BE24" t="n">
-        <v>13184</v>
+        <v>25217</v>
       </c>
       <c r="BF24" t="n">
-        <v>13184</v>
+        <v>25217</v>
       </c>
       <c r="BG24" t="n">
-        <v>13184</v>
+        <v>25217</v>
       </c>
       <c r="BH24" t="n">
         <v>25217</v>
@@ -5235,184 +5235,184 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42216</v>
+        <v>54960</v>
       </c>
       <c r="C26" t="n">
-        <v>47519</v>
+        <v>64545</v>
       </c>
       <c r="D26" t="n">
-        <v>57501</v>
+        <v>67973</v>
       </c>
       <c r="E26" t="n">
-        <v>54960</v>
+        <v>61592</v>
       </c>
       <c r="F26" t="n">
-        <v>64545</v>
+        <v>73560</v>
       </c>
       <c r="G26" t="n">
-        <v>67973</v>
+        <v>83712</v>
       </c>
       <c r="H26" t="n">
-        <v>61592</v>
+        <v>85216</v>
       </c>
       <c r="I26" t="n">
-        <v>73560</v>
+        <v>84449</v>
       </c>
       <c r="J26" t="n">
-        <v>83712</v>
+        <v>100497</v>
       </c>
       <c r="K26" t="n">
-        <v>85216</v>
+        <v>123718</v>
       </c>
       <c r="L26" t="n">
-        <v>84449</v>
+        <v>139220.992</v>
       </c>
       <c r="M26" t="n">
-        <v>100497</v>
+        <v>138606</v>
       </c>
       <c r="N26" t="n">
-        <v>123718</v>
+        <v>167092</v>
       </c>
       <c r="O26" t="n">
-        <v>139220.992</v>
+        <v>180184.992</v>
       </c>
       <c r="P26" t="n">
-        <v>138606</v>
+        <v>124401</v>
       </c>
       <c r="Q26" t="n">
-        <v>167092</v>
+        <v>116432</v>
       </c>
       <c r="R26" t="n">
-        <v>180184.992</v>
+        <v>132948</v>
       </c>
       <c r="S26" t="n">
-        <v>124401</v>
+        <v>146964.992</v>
       </c>
       <c r="T26" t="n">
-        <v>116432</v>
+        <v>145234</v>
       </c>
       <c r="U26" t="n">
-        <v>132948</v>
+        <v>140808</v>
       </c>
       <c r="V26" t="n">
-        <v>146964.992</v>
+        <v>141724.992</v>
       </c>
       <c r="W26" t="n">
-        <v>145234</v>
+        <v>124347</v>
       </c>
       <c r="X26" t="n">
-        <v>140808</v>
+        <v>139382</v>
       </c>
       <c r="Y26" t="n">
-        <v>141724.992</v>
+        <v>145306</v>
       </c>
       <c r="Z26" t="n">
-        <v>124347</v>
+        <v>129667</v>
       </c>
       <c r="AA26" t="n">
-        <v>139382</v>
+        <v>128518</v>
       </c>
       <c r="AB26" t="n">
-        <v>145306</v>
+        <v>132816</v>
       </c>
       <c r="AC26" t="n">
-        <v>129667</v>
+        <v>133286</v>
       </c>
       <c r="AD26" t="n">
-        <v>128518</v>
+        <v>152404</v>
       </c>
       <c r="AE26" t="n">
-        <v>132816</v>
+        <v>145452</v>
       </c>
       <c r="AF26" t="n">
-        <v>133286</v>
+        <v>137099.008</v>
       </c>
       <c r="AG26" t="n">
-        <v>152404</v>
+        <v>145076.992</v>
       </c>
       <c r="AH26" t="n">
-        <v>145452</v>
+        <v>154500</v>
       </c>
       <c r="AI26" t="n">
-        <v>137099.008</v>
+        <v>145622</v>
       </c>
       <c r="AJ26" t="n">
-        <v>145076.992</v>
+        <v>146264.992</v>
       </c>
       <c r="AK26" t="n">
-        <v>154500</v>
+        <v>174762</v>
       </c>
       <c r="AL26" t="n">
-        <v>145622</v>
+        <v>175516.992</v>
       </c>
       <c r="AM26" t="n">
-        <v>146264.992</v>
+        <v>175406</v>
       </c>
       <c r="AN26" t="n">
-        <v>174762</v>
+        <v>163924.992</v>
       </c>
       <c r="AO26" t="n">
-        <v>175516.992</v>
+        <v>185404.992</v>
       </c>
       <c r="AP26" t="n">
-        <v>175406</v>
+        <v>211156.992</v>
       </c>
       <c r="AQ26" t="n">
-        <v>163924.992</v>
+        <v>213206</v>
       </c>
       <c r="AR26" t="n">
-        <v>185404.992</v>
+        <v>231916</v>
       </c>
       <c r="AS26" t="n">
-        <v>211156.992</v>
+        <v>245110</v>
       </c>
       <c r="AT26" t="n">
-        <v>213206</v>
+        <v>256468.992</v>
       </c>
       <c r="AU26" t="n">
-        <v>231916</v>
+        <v>236168</v>
       </c>
       <c r="AV26" t="n">
-        <v>245110</v>
+        <v>245659.008</v>
       </c>
       <c r="AW26" t="n">
-        <v>256468.992</v>
+        <v>275871.008</v>
       </c>
       <c r="AX26" t="n">
-        <v>236168</v>
+        <v>308199.008</v>
       </c>
       <c r="AY26" t="n">
-        <v>245659.008</v>
+        <v>319471.008</v>
       </c>
       <c r="AZ26" t="n">
-        <v>275871.008</v>
+        <v>303303.008</v>
       </c>
       <c r="BA26" t="n">
-        <v>308199.008</v>
+        <v>300900</v>
       </c>
       <c r="BB26" t="n">
-        <v>319471.008</v>
+        <v>330257.984</v>
       </c>
       <c r="BC26" t="n">
-        <v>303303.008</v>
+        <v>354766.016</v>
       </c>
       <c r="BD26" t="n">
-        <v>300900</v>
+        <v>426412</v>
       </c>
       <c r="BE26" t="n">
-        <v>330257.984</v>
+        <v>553107.008</v>
       </c>
       <c r="BF26" t="n">
-        <v>354766.016</v>
+        <v>528628</v>
       </c>
       <c r="BG26" t="n">
-        <v>426412</v>
+        <v>500809.984</v>
       </c>
       <c r="BH26" t="n">
-        <v>553107.008</v>
+        <v>527609.9840000001</v>
       </c>
       <c r="BI26" t="n">
-        <v>528628</v>
+        <v>563062.0159999999</v>
       </c>
     </row>
     <row r="27">
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10977</v>
+        <v>18431</v>
       </c>
       <c r="C27" t="n">
-        <v>14121</v>
+        <v>25445</v>
       </c>
       <c r="D27" t="n">
-        <v>23096</v>
+        <v>26426</v>
       </c>
       <c r="E27" t="n">
-        <v>18431</v>
+        <v>19748</v>
       </c>
       <c r="F27" t="n">
-        <v>25445</v>
+        <v>29693</v>
       </c>
       <c r="G27" t="n">
-        <v>26426</v>
+        <v>38499</v>
       </c>
       <c r="H27" t="n">
-        <v>19748</v>
+        <v>38426</v>
       </c>
       <c r="I27" t="n">
-        <v>29693</v>
+        <v>36608</v>
       </c>
       <c r="J27" t="n">
-        <v>38499</v>
+        <v>51349</v>
       </c>
       <c r="K27" t="n">
-        <v>38426</v>
+        <v>64957</v>
       </c>
       <c r="L27" t="n">
-        <v>36608</v>
+        <v>77587</v>
       </c>
       <c r="M27" t="n">
-        <v>51349</v>
+        <v>72315</v>
       </c>
       <c r="N27" t="n">
-        <v>64957</v>
+        <v>101572</v>
       </c>
       <c r="O27" t="n">
-        <v>77587</v>
+        <v>111213</v>
       </c>
       <c r="P27" t="n">
-        <v>72315</v>
+        <v>53706</v>
       </c>
       <c r="Q27" t="n">
-        <v>101572</v>
+        <v>44301</v>
       </c>
       <c r="R27" t="n">
-        <v>111213</v>
+        <v>60421</v>
       </c>
       <c r="S27" t="n">
-        <v>53706</v>
+        <v>71359</v>
       </c>
       <c r="T27" t="n">
-        <v>44301</v>
+        <v>68924</v>
       </c>
       <c r="U27" t="n">
-        <v>60421</v>
+        <v>61456</v>
       </c>
       <c r="V27" t="n">
-        <v>71359</v>
+        <v>61431</v>
       </c>
       <c r="W27" t="n">
-        <v>68924</v>
+        <v>38364</v>
       </c>
       <c r="X27" t="n">
-        <v>61456</v>
+        <v>48619</v>
       </c>
       <c r="Y27" t="n">
-        <v>61431</v>
+        <v>51243</v>
       </c>
       <c r="Z27" t="n">
-        <v>38364</v>
+        <v>35341</v>
       </c>
       <c r="AA27" t="n">
-        <v>48619</v>
+        <v>31902</v>
       </c>
       <c r="AB27" t="n">
-        <v>51243</v>
+        <v>33919</v>
       </c>
       <c r="AC27" t="n">
-        <v>35341</v>
+        <v>32516</v>
       </c>
       <c r="AD27" t="n">
-        <v>31902</v>
+        <v>50814</v>
       </c>
       <c r="AE27" t="n">
-        <v>33919</v>
+        <v>39728</v>
       </c>
       <c r="AF27" t="n">
-        <v>32516</v>
+        <v>28853</v>
       </c>
       <c r="AG27" t="n">
-        <v>50814</v>
+        <v>34419</v>
       </c>
       <c r="AH27" t="n">
-        <v>39728</v>
+        <v>42964</v>
       </c>
       <c r="AI27" t="n">
-        <v>28853</v>
+        <v>32390</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34419</v>
+        <v>31458</v>
       </c>
       <c r="AK27" t="n">
-        <v>42964</v>
+        <v>56024</v>
       </c>
       <c r="AL27" t="n">
-        <v>32390</v>
+        <v>54665</v>
       </c>
       <c r="AM27" t="n">
-        <v>31458</v>
+        <v>50411</v>
       </c>
       <c r="AN27" t="n">
-        <v>56024</v>
+        <v>37787</v>
       </c>
       <c r="AO27" t="n">
-        <v>54665</v>
+        <v>46006</v>
       </c>
       <c r="AP27" t="n">
-        <v>50411</v>
+        <v>70987</v>
       </c>
       <c r="AQ27" t="n">
-        <v>37787</v>
+        <v>64699</v>
       </c>
       <c r="AR27" t="n">
-        <v>46006</v>
+        <v>81723</v>
       </c>
       <c r="AS27" t="n">
-        <v>70987</v>
+        <v>78727</v>
       </c>
       <c r="AT27" t="n">
-        <v>64699</v>
+        <v>86339</v>
       </c>
       <c r="AU27" t="n">
-        <v>81723</v>
+        <v>68877</v>
       </c>
       <c r="AV27" t="n">
-        <v>78727</v>
+        <v>72185</v>
       </c>
       <c r="AW27" t="n">
-        <v>86339</v>
+        <v>96660</v>
       </c>
       <c r="AX27" t="n">
-        <v>68877</v>
+        <v>120217</v>
       </c>
       <c r="AY27" t="n">
-        <v>72185</v>
+        <v>129961</v>
       </c>
       <c r="AZ27" t="n">
-        <v>96660</v>
+        <v>101575</v>
       </c>
       <c r="BA27" t="n">
-        <v>120217</v>
+        <v>96182</v>
       </c>
       <c r="BB27" t="n">
-        <v>129961</v>
+        <v>117241</v>
       </c>
       <c r="BC27" t="n">
-        <v>101575</v>
+        <v>134887.008</v>
       </c>
       <c r="BD27" t="n">
-        <v>96182</v>
+        <v>191342</v>
       </c>
       <c r="BE27" t="n">
-        <v>117241</v>
+        <v>313143.008</v>
       </c>
       <c r="BF27" t="n">
-        <v>134887.008</v>
+        <v>277836.992</v>
       </c>
       <c r="BG27" t="n">
-        <v>191342</v>
+        <v>239994</v>
       </c>
       <c r="BH27" t="n">
-        <v>313143.008</v>
+        <v>264983.008</v>
       </c>
       <c r="BI27" t="n">
-        <v>277836.992</v>
+        <v>291288</v>
       </c>
     </row>
     <row r="28">
@@ -5636,157 +5636,157 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2676</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3037</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>3309</v>
       </c>
       <c r="N28" t="n">
-        <v>2676</v>
+        <v>2651</v>
       </c>
       <c r="O28" t="n">
-        <v>3037</v>
+        <v>2693</v>
       </c>
       <c r="P28" t="n">
-        <v>3309</v>
+        <v>3123</v>
       </c>
       <c r="Q28" t="n">
-        <v>2651</v>
+        <v>3002</v>
       </c>
       <c r="R28" t="n">
-        <v>2693</v>
+        <v>2461</v>
       </c>
       <c r="S28" t="n">
-        <v>3123</v>
+        <v>2776</v>
       </c>
       <c r="T28" t="n">
+        <v>2990</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3407</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2565</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3249</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3353</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3811</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2824</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2888</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>3073</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>3272</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2528</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2682</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2861</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>3212</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>2374</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2535</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2866</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>3268</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2699</v>
+      </c>
+      <c r="AM28" t="n">
         <v>3002</v>
       </c>
-      <c r="U28" t="n">
-        <v>2461</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2776</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2990</v>
-      </c>
-      <c r="X28" t="n">
-        <v>3407</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2565</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>3249</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>3353</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>3811</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>2824</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2888</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>3073</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>3272</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>2528</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>2682</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>2861</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>3212</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>2374</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>2535</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>2866</v>
-      </c>
       <c r="AN28" t="n">
-        <v>3268</v>
+        <v>3005</v>
       </c>
       <c r="AO28" t="n">
-        <v>2699</v>
+        <v>3910</v>
       </c>
       <c r="AP28" t="n">
-        <v>3002</v>
+        <v>2797</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3005</v>
+        <v>3516</v>
       </c>
       <c r="AR28" t="n">
-        <v>3910</v>
+        <v>3900</v>
       </c>
       <c r="AS28" t="n">
-        <v>2797</v>
+        <v>3074</v>
       </c>
       <c r="AT28" t="n">
-        <v>3516</v>
+        <v>3852</v>
       </c>
       <c r="AU28" t="n">
-        <v>3900</v>
+        <v>3499</v>
       </c>
       <c r="AV28" t="n">
-        <v>3074</v>
+        <v>4403</v>
       </c>
       <c r="AW28" t="n">
-        <v>3852</v>
+        <v>3441</v>
       </c>
       <c r="AX28" t="n">
-        <v>3499</v>
+        <v>4566</v>
       </c>
       <c r="AY28" t="n">
-        <v>4403</v>
+        <v>5302</v>
       </c>
       <c r="AZ28" t="n">
-        <v>3441</v>
+        <v>6046</v>
       </c>
       <c r="BA28" t="n">
-        <v>4566</v>
+        <v>4471</v>
       </c>
       <c r="BB28" t="n">
-        <v>5302</v>
+        <v>6086</v>
       </c>
       <c r="BC28" t="n">
-        <v>6046</v>
+        <v>6352</v>
       </c>
       <c r="BD28" t="n">
-        <v>4471</v>
+        <v>7121</v>
       </c>
       <c r="BE28" t="n">
-        <v>6086</v>
+        <v>5307</v>
       </c>
       <c r="BF28" t="n">
-        <v>6352</v>
+        <v>7713</v>
       </c>
       <c r="BG28" t="n">
-        <v>7121</v>
+        <v>8622</v>
       </c>
       <c r="BH28" t="n">
-        <v>5307</v>
+        <v>6548</v>
       </c>
       <c r="BI28" t="n">
-        <v>7713</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="29">
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6377</v>
+        <v>4189</v>
       </c>
       <c r="C29" t="n">
-        <v>7898</v>
+        <v>6586</v>
       </c>
       <c r="D29" t="n">
-        <v>4422</v>
+        <v>6329</v>
       </c>
       <c r="E29" t="n">
-        <v>4189</v>
+        <v>4702</v>
       </c>
       <c r="F29" t="n">
-        <v>6586</v>
+        <v>7214</v>
       </c>
       <c r="G29" t="n">
-        <v>6329</v>
+        <v>13544</v>
       </c>
       <c r="H29" t="n">
-        <v>4702</v>
+        <v>8350</v>
       </c>
       <c r="I29" t="n">
-        <v>7214</v>
+        <v>9009</v>
       </c>
       <c r="J29" t="n">
-        <v>13544</v>
+        <v>25867</v>
       </c>
       <c r="K29" t="n">
-        <v>8350</v>
+        <v>15330</v>
       </c>
       <c r="L29" t="n">
-        <v>9009</v>
+        <v>30299</v>
       </c>
       <c r="M29" t="n">
-        <v>25867</v>
+        <v>22665</v>
       </c>
       <c r="N29" t="n">
-        <v>15330</v>
+        <v>51697</v>
       </c>
       <c r="O29" t="n">
-        <v>30299</v>
+        <v>36361</v>
       </c>
       <c r="P29" t="n">
-        <v>22665</v>
+        <v>39989</v>
       </c>
       <c r="Q29" t="n">
-        <v>51697</v>
+        <v>13642</v>
       </c>
       <c r="R29" t="n">
-        <v>36361</v>
+        <v>17769</v>
       </c>
       <c r="S29" t="n">
-        <v>39989</v>
+        <v>32189</v>
       </c>
       <c r="T29" t="n">
-        <v>13642</v>
+        <v>28557</v>
       </c>
       <c r="U29" t="n">
-        <v>17769</v>
+        <v>22960</v>
       </c>
       <c r="V29" t="n">
-        <v>32189</v>
+        <v>24813</v>
       </c>
       <c r="W29" t="n">
-        <v>28557</v>
+        <v>9771</v>
       </c>
       <c r="X29" t="n">
-        <v>22960</v>
+        <v>34589</v>
       </c>
       <c r="Y29" t="n">
-        <v>24813</v>
+        <v>31836</v>
       </c>
       <c r="Z29" t="n">
-        <v>9771</v>
+        <v>15025</v>
       </c>
       <c r="AA29" t="n">
-        <v>34589</v>
+        <v>14360</v>
       </c>
       <c r="AB29" t="n">
-        <v>31836</v>
+        <v>16876</v>
       </c>
       <c r="AC29" t="n">
-        <v>15025</v>
+        <v>22771</v>
       </c>
       <c r="AD29" t="n">
-        <v>14360</v>
+        <v>38812</v>
       </c>
       <c r="AE29" t="n">
-        <v>16876</v>
+        <v>25505</v>
       </c>
       <c r="AF29" t="n">
-        <v>22771</v>
+        <v>14198</v>
       </c>
       <c r="AG29" t="n">
-        <v>38812</v>
+        <v>22714</v>
       </c>
       <c r="AH29" t="n">
-        <v>25505</v>
+        <v>29761</v>
       </c>
       <c r="AI29" t="n">
-        <v>14198</v>
+        <v>19528</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22714</v>
+        <v>17635</v>
       </c>
       <c r="AK29" t="n">
-        <v>29761</v>
+        <v>45430</v>
       </c>
       <c r="AL29" t="n">
-        <v>19528</v>
+        <v>41814</v>
       </c>
       <c r="AM29" t="n">
-        <v>17635</v>
+        <v>34738</v>
       </c>
       <c r="AN29" t="n">
-        <v>45430</v>
+        <v>24973</v>
       </c>
       <c r="AO29" t="n">
-        <v>41814</v>
+        <v>31707</v>
       </c>
       <c r="AP29" t="n">
-        <v>34738</v>
+        <v>53550</v>
       </c>
       <c r="AQ29" t="n">
-        <v>24973</v>
+        <v>43102</v>
       </c>
       <c r="AR29" t="n">
-        <v>31707</v>
+        <v>59386</v>
       </c>
       <c r="AS29" t="n">
-        <v>53550</v>
+        <v>55859</v>
       </c>
       <c r="AT29" t="n">
-        <v>43102</v>
+        <v>60790</v>
       </c>
       <c r="AU29" t="n">
-        <v>59386</v>
+        <v>47323</v>
       </c>
       <c r="AV29" t="n">
-        <v>55859</v>
+        <v>52205</v>
       </c>
       <c r="AW29" t="n">
-        <v>60790</v>
+        <v>70771</v>
       </c>
       <c r="AX29" t="n">
-        <v>47323</v>
+        <v>87914</v>
       </c>
       <c r="AY29" t="n">
-        <v>52205</v>
+        <v>95098</v>
       </c>
       <c r="AZ29" t="n">
-        <v>70771</v>
+        <v>68675</v>
       </c>
       <c r="BA29" t="n">
-        <v>87914</v>
+        <v>50806</v>
       </c>
       <c r="BB29" t="n">
-        <v>95098</v>
+        <v>41307</v>
       </c>
       <c r="BC29" t="n">
-        <v>68675</v>
+        <v>48923</v>
       </c>
       <c r="BD29" t="n">
-        <v>50806</v>
+        <v>77644</v>
       </c>
       <c r="BE29" t="n">
-        <v>41307</v>
+        <v>28276</v>
       </c>
       <c r="BF29" t="n">
-        <v>48923</v>
+        <v>24017</v>
       </c>
       <c r="BG29" t="n">
-        <v>77644</v>
+        <v>27155</v>
       </c>
       <c r="BH29" t="n">
-        <v>28276</v>
+        <v>18031</v>
       </c>
       <c r="BI29" t="n">
-        <v>24017</v>
+        <v>21415</v>
       </c>
     </row>
     <row r="30">
@@ -5983,184 +5983,184 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2634</v>
+        <v>5964</v>
       </c>
       <c r="C30" t="n">
-        <v>3966</v>
+        <v>3981</v>
       </c>
       <c r="D30" t="n">
-        <v>4779</v>
+        <v>5482</v>
       </c>
       <c r="E30" t="n">
-        <v>5964</v>
+        <v>5894</v>
       </c>
       <c r="F30" t="n">
-        <v>3981</v>
+        <v>6967</v>
       </c>
       <c r="G30" t="n">
-        <v>5482</v>
+        <v>7917</v>
       </c>
       <c r="H30" t="n">
-        <v>5894</v>
+        <v>9261</v>
       </c>
       <c r="I30" t="n">
-        <v>6967</v>
+        <v>5283</v>
       </c>
       <c r="J30" t="n">
-        <v>7917</v>
+        <v>6234</v>
       </c>
       <c r="K30" t="n">
-        <v>9261</v>
+        <v>6050</v>
       </c>
       <c r="L30" t="n">
-        <v>5283</v>
+        <v>3356</v>
       </c>
       <c r="M30" t="n">
-        <v>6234</v>
+        <v>5646</v>
       </c>
       <c r="N30" t="n">
-        <v>6050</v>
+        <v>6216</v>
       </c>
       <c r="O30" t="n">
-        <v>3356</v>
+        <v>7706</v>
       </c>
       <c r="P30" t="n">
-        <v>5646</v>
+        <v>2664</v>
       </c>
       <c r="Q30" t="n">
-        <v>6216</v>
+        <v>3595</v>
       </c>
       <c r="R30" t="n">
-        <v>7706</v>
+        <v>4454</v>
       </c>
       <c r="S30" t="n">
-        <v>2664</v>
+        <v>5937</v>
       </c>
       <c r="T30" t="n">
-        <v>3595</v>
+        <v>2195</v>
       </c>
       <c r="U30" t="n">
-        <v>4454</v>
+        <v>3670</v>
       </c>
       <c r="V30" t="n">
-        <v>5937</v>
+        <v>4860</v>
       </c>
       <c r="W30" t="n">
-        <v>2195</v>
+        <v>7581</v>
       </c>
       <c r="X30" t="n">
-        <v>3670</v>
+        <v>5270</v>
       </c>
       <c r="Y30" t="n">
-        <v>4860</v>
+        <v>6862</v>
       </c>
       <c r="Z30" t="n">
-        <v>7581</v>
+        <v>8320</v>
       </c>
       <c r="AA30" t="n">
-        <v>5270</v>
+        <v>8967</v>
       </c>
       <c r="AB30" t="n">
-        <v>6862</v>
+        <v>9809</v>
       </c>
       <c r="AC30" t="n">
-        <v>8320</v>
+        <v>3162</v>
       </c>
       <c r="AD30" t="n">
-        <v>8967</v>
+        <v>4168</v>
       </c>
       <c r="AE30" t="n">
-        <v>9809</v>
+        <v>6159</v>
       </c>
       <c r="AF30" t="n">
-        <v>3162</v>
+        <v>7483</v>
       </c>
       <c r="AG30" t="n">
-        <v>4168</v>
+        <v>4614</v>
       </c>
       <c r="AH30" t="n">
-        <v>6159</v>
+        <v>5904</v>
       </c>
       <c r="AI30" t="n">
-        <v>7483</v>
+        <v>6913</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4614</v>
+        <v>7456</v>
       </c>
       <c r="AK30" t="n">
-        <v>5904</v>
+        <v>3835</v>
       </c>
       <c r="AL30" t="n">
-        <v>6913</v>
+        <v>5686</v>
       </c>
       <c r="AM30" t="n">
-        <v>7456</v>
+        <v>7593</v>
       </c>
       <c r="AN30" t="n">
-        <v>3835</v>
+        <v>7973</v>
       </c>
       <c r="AO30" t="n">
-        <v>5686</v>
+        <v>5549</v>
       </c>
       <c r="AP30" t="n">
-        <v>7593</v>
+        <v>7559</v>
       </c>
       <c r="AQ30" t="n">
-        <v>7973</v>
+        <v>10986</v>
       </c>
       <c r="AR30" t="n">
-        <v>5549</v>
+        <v>13076</v>
       </c>
       <c r="AS30" t="n">
-        <v>7559</v>
+        <v>10181</v>
       </c>
       <c r="AT30" t="n">
-        <v>10986</v>
+        <v>12207</v>
       </c>
       <c r="AU30" t="n">
-        <v>13076</v>
+        <v>12405</v>
       </c>
       <c r="AV30" t="n">
-        <v>10181</v>
+        <v>8166</v>
       </c>
       <c r="AW30" t="n">
-        <v>12207</v>
+        <v>12758</v>
       </c>
       <c r="AX30" t="n">
-        <v>12405</v>
+        <v>17529</v>
       </c>
       <c r="AY30" t="n">
-        <v>8166</v>
+        <v>20617</v>
       </c>
       <c r="AZ30" t="n">
-        <v>12758</v>
+        <v>17249</v>
       </c>
       <c r="BA30" t="n">
-        <v>17529</v>
+        <v>21260</v>
       </c>
       <c r="BB30" t="n">
-        <v>20617</v>
+        <v>26825</v>
       </c>
       <c r="BC30" t="n">
-        <v>17249</v>
+        <v>31104</v>
       </c>
       <c r="BD30" t="n">
-        <v>21260</v>
+        <v>18731</v>
       </c>
       <c r="BE30" t="n">
-        <v>26825</v>
+        <v>24866</v>
       </c>
       <c r="BF30" t="n">
-        <v>31104</v>
+        <v>31357</v>
       </c>
       <c r="BG30" t="n">
-        <v>18731</v>
+        <v>13053</v>
       </c>
       <c r="BH30" t="n">
-        <v>24866</v>
+        <v>17029</v>
       </c>
       <c r="BI30" t="n">
-        <v>31357</v>
+        <v>20931</v>
       </c>
     </row>
     <row r="31">
@@ -6170,109 +6170,109 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1024</v>
+        <v>5341</v>
       </c>
       <c r="C31" t="n">
-        <v>1008</v>
+        <v>12636</v>
       </c>
       <c r="D31" t="n">
-        <v>12493</v>
+        <v>13099</v>
       </c>
       <c r="E31" t="n">
-        <v>5341</v>
+        <v>6993</v>
       </c>
       <c r="F31" t="n">
-        <v>12636</v>
+        <v>12387</v>
       </c>
       <c r="G31" t="n">
-        <v>13099</v>
+        <v>13995</v>
       </c>
       <c r="H31" t="n">
-        <v>6993</v>
+        <v>16038</v>
       </c>
       <c r="I31" t="n">
-        <v>12387</v>
+        <v>20215</v>
       </c>
       <c r="J31" t="n">
-        <v>13995</v>
+        <v>16455</v>
       </c>
       <c r="K31" t="n">
-        <v>16038</v>
+        <v>34187</v>
       </c>
       <c r="L31" t="n">
-        <v>20215</v>
+        <v>37588</v>
       </c>
       <c r="M31" t="n">
-        <v>16455</v>
+        <v>38280</v>
       </c>
       <c r="N31" t="n">
-        <v>34187</v>
+        <v>37613</v>
       </c>
       <c r="O31" t="n">
-        <v>37588</v>
+        <v>53991</v>
       </c>
       <c r="P31" t="n">
-        <v>38280</v>
+        <v>3981</v>
       </c>
       <c r="Q31" t="n">
-        <v>37613</v>
+        <v>20586</v>
       </c>
       <c r="R31" t="n">
-        <v>53991</v>
+        <v>32261</v>
       </c>
       <c r="S31" t="n">
-        <v>3981</v>
+        <v>26892</v>
       </c>
       <c r="T31" t="n">
-        <v>20586</v>
+        <v>30716</v>
       </c>
       <c r="U31" t="n">
-        <v>32261</v>
+        <v>25558</v>
       </c>
       <c r="V31" t="n">
-        <v>26892</v>
+        <v>22161</v>
       </c>
       <c r="W31" t="n">
-        <v>30716</v>
+        <v>10708</v>
       </c>
       <c r="X31" t="n">
-        <v>25558</v>
+        <v>1158</v>
       </c>
       <c r="Y31" t="n">
-        <v>22161</v>
+        <v>5423</v>
       </c>
       <c r="Z31" t="n">
-        <v>10708</v>
+        <v>3920</v>
       </c>
       <c r="AA31" t="n">
-        <v>1158</v>
+        <v>604</v>
       </c>
       <c r="AB31" t="n">
-        <v>5423</v>
+        <v>31</v>
       </c>
       <c r="AC31" t="n">
-        <v>3920</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
@@ -6287,67 +6287,67 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>2648</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="AR31" t="n">
-        <v>2648</v>
+        <v>2641</v>
       </c>
       <c r="AS31" t="n">
-        <v>2652</v>
+        <v>2984</v>
       </c>
       <c r="AT31" t="n">
-        <v>2634</v>
+        <v>3029</v>
       </c>
       <c r="AU31" t="n">
-        <v>2641</v>
+        <v>3018</v>
       </c>
       <c r="AV31" t="n">
-        <v>2984</v>
+        <v>3023</v>
       </c>
       <c r="AW31" t="n">
-        <v>3029</v>
+        <v>3490</v>
       </c>
       <c r="AX31" t="n">
-        <v>3018</v>
+        <v>3537</v>
       </c>
       <c r="AY31" t="n">
-        <v>3023</v>
+        <v>3551</v>
       </c>
       <c r="AZ31" t="n">
-        <v>3490</v>
+        <v>3573</v>
       </c>
       <c r="BA31" t="n">
-        <v>3537</v>
+        <v>2896</v>
       </c>
       <c r="BB31" t="n">
-        <v>3551</v>
+        <v>20160</v>
       </c>
       <c r="BC31" t="n">
-        <v>3573</v>
+        <v>34192</v>
       </c>
       <c r="BD31" t="n">
-        <v>2896</v>
+        <v>69098</v>
       </c>
       <c r="BE31" t="n">
-        <v>20160</v>
+        <v>228028.992</v>
       </c>
       <c r="BF31" t="n">
-        <v>34192</v>
+        <v>199420</v>
       </c>
       <c r="BG31" t="n">
-        <v>69098</v>
+        <v>176932</v>
       </c>
       <c r="BH31" t="n">
-        <v>228028.992</v>
+        <v>203574</v>
       </c>
       <c r="BI31" t="n">
-        <v>199420</v>
+        <v>215123.008</v>
       </c>
     </row>
     <row r="32">
@@ -6544,40 +6544,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420</v>
+        <v>1308</v>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="D33" t="n">
-        <v>893</v>
+        <v>533</v>
       </c>
       <c r="E33" t="n">
-        <v>1308</v>
+        <v>1213</v>
       </c>
       <c r="F33" t="n">
-        <v>533</v>
+        <v>1745</v>
       </c>
       <c r="G33" t="n">
-        <v>533</v>
+        <v>696</v>
       </c>
       <c r="H33" t="n">
-        <v>1213</v>
+        <v>695</v>
       </c>
       <c r="I33" t="n">
-        <v>1745</v>
+        <v>937</v>
       </c>
       <c r="J33" t="n">
-        <v>696</v>
+        <v>1622</v>
       </c>
       <c r="K33" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1622</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -6731,184 +6731,184 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>522</v>
+        <v>1629</v>
       </c>
       <c r="C34" t="n">
-        <v>830</v>
+        <v>1709</v>
       </c>
       <c r="D34" t="n">
-        <v>509</v>
+        <v>983</v>
       </c>
       <c r="E34" t="n">
-        <v>1629</v>
+        <v>946</v>
       </c>
       <c r="F34" t="n">
-        <v>1709</v>
+        <v>1380</v>
       </c>
       <c r="G34" t="n">
-        <v>983</v>
+        <v>2347</v>
       </c>
       <c r="H34" t="n">
-        <v>946</v>
+        <v>4082</v>
       </c>
       <c r="I34" t="n">
-        <v>1380</v>
+        <v>1164</v>
       </c>
       <c r="J34" t="n">
-        <v>2347</v>
+        <v>1171</v>
       </c>
       <c r="K34" t="n">
-        <v>4082</v>
+        <v>6714</v>
       </c>
       <c r="L34" t="n">
-        <v>1164</v>
+        <v>3307</v>
       </c>
       <c r="M34" t="n">
-        <v>1171</v>
+        <v>2415</v>
       </c>
       <c r="N34" t="n">
-        <v>6714</v>
+        <v>3395</v>
       </c>
       <c r="O34" t="n">
-        <v>3307</v>
+        <v>10462</v>
       </c>
       <c r="P34" t="n">
-        <v>2415</v>
+        <v>3949</v>
       </c>
       <c r="Q34" t="n">
-        <v>3395</v>
+        <v>3476</v>
       </c>
       <c r="R34" t="n">
-        <v>10462</v>
+        <v>3476</v>
       </c>
       <c r="S34" t="n">
-        <v>3949</v>
+        <v>3565</v>
       </c>
       <c r="T34" t="n">
-        <v>3476</v>
+        <v>4466</v>
       </c>
       <c r="U34" t="n">
-        <v>3476</v>
+        <v>5861</v>
       </c>
       <c r="V34" t="n">
-        <v>3565</v>
+        <v>7032</v>
       </c>
       <c r="W34" t="n">
+        <v>7055</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4249</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3311</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5252</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5083</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>4130</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3296</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>5306</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>5372</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4305</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>3878</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>4925</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3414</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>3501</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>3491</v>
+      </c>
+      <c r="AL34" t="n">
         <v>4466</v>
       </c>
-      <c r="X34" t="n">
-        <v>5861</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>7032</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7055</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>4249</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>3311</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>5252</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>5083</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>4130</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>3296</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>5306</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>5372</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>4305</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>3878</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>4925</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>3414</v>
-      </c>
       <c r="AM34" t="n">
-        <v>3501</v>
+        <v>5078</v>
       </c>
       <c r="AN34" t="n">
-        <v>3491</v>
+        <v>1836</v>
       </c>
       <c r="AO34" t="n">
-        <v>4466</v>
+        <v>2192</v>
       </c>
       <c r="AP34" t="n">
-        <v>5078</v>
+        <v>4429</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1836</v>
+        <v>4461</v>
       </c>
       <c r="AR34" t="n">
-        <v>2192</v>
+        <v>2720</v>
       </c>
       <c r="AS34" t="n">
-        <v>4429</v>
+        <v>6629</v>
       </c>
       <c r="AT34" t="n">
-        <v>4461</v>
+        <v>6461</v>
       </c>
       <c r="AU34" t="n">
-        <v>2720</v>
+        <v>2632</v>
       </c>
       <c r="AV34" t="n">
-        <v>6629</v>
+        <v>4388</v>
       </c>
       <c r="AW34" t="n">
-        <v>6461</v>
+        <v>6200</v>
       </c>
       <c r="AX34" t="n">
-        <v>2632</v>
+        <v>6671</v>
       </c>
       <c r="AY34" t="n">
-        <v>4388</v>
+        <v>5393</v>
       </c>
       <c r="AZ34" t="n">
-        <v>6200</v>
+        <v>6032</v>
       </c>
       <c r="BA34" t="n">
-        <v>6671</v>
+        <v>16749</v>
       </c>
       <c r="BB34" t="n">
-        <v>5393</v>
+        <v>22863</v>
       </c>
       <c r="BC34" t="n">
-        <v>6032</v>
+        <v>14316</v>
       </c>
       <c r="BD34" t="n">
-        <v>16749</v>
+        <v>18748</v>
       </c>
       <c r="BE34" t="n">
-        <v>22863</v>
+        <v>26665</v>
       </c>
       <c r="BF34" t="n">
-        <v>14316</v>
+        <v>15330</v>
       </c>
       <c r="BG34" t="n">
-        <v>18748</v>
+        <v>14232</v>
       </c>
       <c r="BH34" t="n">
-        <v>26665</v>
+        <v>19801</v>
       </c>
       <c r="BI34" t="n">
-        <v>15330</v>
+        <v>25551</v>
       </c>
     </row>
     <row r="35">
@@ -7292,52 +7292,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903</v>
+        <v>822</v>
       </c>
       <c r="C37" t="n">
-        <v>876</v>
+        <v>795</v>
       </c>
       <c r="D37" t="n">
-        <v>849</v>
+        <v>430</v>
       </c>
       <c r="E37" t="n">
-        <v>822</v>
+        <v>379</v>
       </c>
       <c r="F37" t="n">
-        <v>795</v>
+        <v>352</v>
       </c>
       <c r="G37" t="n">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="H37" t="n">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="I37" t="n">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="J37" t="n">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="K37" t="n">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="L37" t="n">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="M37" t="n">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="N37" t="n">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="O37" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -7409,67 +7409,67 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>6875</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>7988</v>
       </c>
       <c r="AR37" t="n">
-        <v>7500</v>
+        <v>7426</v>
       </c>
       <c r="AS37" t="n">
-        <v>6875</v>
+        <v>5855</v>
       </c>
       <c r="AT37" t="n">
-        <v>7988</v>
+        <v>5151</v>
       </c>
       <c r="AU37" t="n">
-        <v>7426</v>
+        <v>4362</v>
       </c>
       <c r="AV37" t="n">
-        <v>5855</v>
+        <v>3627</v>
       </c>
       <c r="AW37" t="n">
-        <v>5151</v>
+        <v>3770</v>
       </c>
       <c r="AX37" t="n">
-        <v>4362</v>
+        <v>2995</v>
       </c>
       <c r="AY37" t="n">
-        <v>3627</v>
+        <v>2112</v>
       </c>
       <c r="AZ37" t="n">
-        <v>3770</v>
+        <v>1260</v>
       </c>
       <c r="BA37" t="n">
-        <v>2995</v>
+        <v>1971</v>
       </c>
       <c r="BB37" t="n">
-        <v>2112</v>
+        <v>1679</v>
       </c>
       <c r="BC37" t="n">
-        <v>1260</v>
+        <v>1647</v>
       </c>
       <c r="BD37" t="n">
-        <v>1971</v>
+        <v>2872</v>
       </c>
       <c r="BE37" t="n">
-        <v>1679</v>
+        <v>2675</v>
       </c>
       <c r="BF37" t="n">
-        <v>1647</v>
+        <v>3944</v>
       </c>
       <c r="BG37" t="n">
-        <v>2872</v>
+        <v>5839</v>
       </c>
       <c r="BH37" t="n">
-        <v>2675</v>
+        <v>5636</v>
       </c>
       <c r="BI37" t="n">
-        <v>3944</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="38">
@@ -7596,67 +7596,67 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>6875</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="AR38" t="n">
-        <v>7500</v>
+        <v>5625</v>
       </c>
       <c r="AS38" t="n">
-        <v>6875</v>
+        <v>5855</v>
       </c>
       <c r="AT38" t="n">
-        <v>6250</v>
+        <v>5151</v>
       </c>
       <c r="AU38" t="n">
-        <v>5625</v>
+        <v>4362</v>
       </c>
       <c r="AV38" t="n">
-        <v>5855</v>
+        <v>3627</v>
       </c>
       <c r="AW38" t="n">
-        <v>5151</v>
+        <v>3770</v>
       </c>
       <c r="AX38" t="n">
-        <v>4362</v>
+        <v>2995</v>
       </c>
       <c r="AY38" t="n">
-        <v>3627</v>
+        <v>2112</v>
       </c>
       <c r="AZ38" t="n">
-        <v>3770</v>
+        <v>1260</v>
       </c>
       <c r="BA38" t="n">
-        <v>2995</v>
+        <v>1971</v>
       </c>
       <c r="BB38" t="n">
-        <v>2112</v>
+        <v>1679</v>
       </c>
       <c r="BC38" t="n">
-        <v>1260</v>
+        <v>1647</v>
       </c>
       <c r="BD38" t="n">
-        <v>1971</v>
+        <v>2872</v>
       </c>
       <c r="BE38" t="n">
-        <v>1679</v>
+        <v>2675</v>
       </c>
       <c r="BF38" t="n">
-        <v>1647</v>
+        <v>3944</v>
       </c>
       <c r="BG38" t="n">
-        <v>2872</v>
+        <v>5839</v>
       </c>
       <c r="BH38" t="n">
-        <v>2675</v>
+        <v>5636</v>
       </c>
       <c r="BI38" t="n">
-        <v>3944</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="39">
@@ -7853,52 +7853,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>903</v>
+        <v>822</v>
       </c>
       <c r="C40" t="n">
-        <v>876</v>
+        <v>795</v>
       </c>
       <c r="D40" t="n">
-        <v>849</v>
+        <v>430</v>
       </c>
       <c r="E40" t="n">
-        <v>822</v>
+        <v>379</v>
       </c>
       <c r="F40" t="n">
-        <v>795</v>
+        <v>352</v>
       </c>
       <c r="G40" t="n">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="H40" t="n">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="I40" t="n">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="J40" t="n">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="K40" t="n">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="L40" t="n">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="M40" t="n">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="N40" t="n">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="O40" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>1738</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="AS40" t="n">
         <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>1738</v>
+        <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>1801</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
         <v>0</v>
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>30336</v>
+        <v>35707</v>
       </c>
       <c r="C47" t="n">
-        <v>32522</v>
+        <v>38305</v>
       </c>
       <c r="D47" t="n">
-        <v>33556</v>
+        <v>41117</v>
       </c>
       <c r="E47" t="n">
-        <v>35707</v>
+        <v>41465</v>
       </c>
       <c r="F47" t="n">
-        <v>38305</v>
+        <v>43515</v>
       </c>
       <c r="G47" t="n">
-        <v>41117</v>
+        <v>44888</v>
       </c>
       <c r="H47" t="n">
-        <v>41465</v>
+        <v>46492</v>
       </c>
       <c r="I47" t="n">
-        <v>43515</v>
+        <v>47570</v>
       </c>
       <c r="J47" t="n">
-        <v>44888</v>
+        <v>48905</v>
       </c>
       <c r="K47" t="n">
-        <v>46492</v>
+        <v>58626</v>
       </c>
       <c r="L47" t="n">
-        <v>47570</v>
+        <v>61526</v>
       </c>
       <c r="M47" t="n">
-        <v>48905</v>
+        <v>66210</v>
       </c>
       <c r="N47" t="n">
-        <v>58626</v>
+        <v>65466</v>
       </c>
       <c r="O47" t="n">
-        <v>61526</v>
+        <v>68972</v>
       </c>
       <c r="P47" t="n">
-        <v>66210</v>
+        <v>70695</v>
       </c>
       <c r="Q47" t="n">
-        <v>65466</v>
+        <v>72131</v>
       </c>
       <c r="R47" t="n">
-        <v>68972</v>
+        <v>72527</v>
       </c>
       <c r="S47" t="n">
-        <v>70695</v>
+        <v>75606</v>
       </c>
       <c r="T47" t="n">
-        <v>72131</v>
+        <v>76310</v>
       </c>
       <c r="U47" t="n">
-        <v>72527</v>
+        <v>79352</v>
       </c>
       <c r="V47" t="n">
-        <v>75606</v>
+        <v>80294</v>
       </c>
       <c r="W47" t="n">
-        <v>76310</v>
+        <v>85983</v>
       </c>
       <c r="X47" t="n">
-        <v>79352</v>
+        <v>90763</v>
       </c>
       <c r="Y47" t="n">
-        <v>80294</v>
+        <v>94063</v>
       </c>
       <c r="Z47" t="n">
-        <v>85983</v>
+        <v>94326</v>
       </c>
       <c r="AA47" t="n">
-        <v>90763</v>
+        <v>96616</v>
       </c>
       <c r="AB47" t="n">
-        <v>94063</v>
+        <v>98897</v>
       </c>
       <c r="AC47" t="n">
-        <v>94326</v>
+        <v>100770</v>
       </c>
       <c r="AD47" t="n">
-        <v>96616</v>
+        <v>101590</v>
       </c>
       <c r="AE47" t="n">
-        <v>98897</v>
+        <v>105724</v>
       </c>
       <c r="AF47" t="n">
-        <v>100770</v>
+        <v>108246</v>
       </c>
       <c r="AG47" t="n">
-        <v>101590</v>
+        <v>110658</v>
       </c>
       <c r="AH47" t="n">
-        <v>105724</v>
+        <v>111536</v>
       </c>
       <c r="AI47" t="n">
-        <v>108246</v>
+        <v>113232</v>
       </c>
       <c r="AJ47" t="n">
-        <v>110658</v>
+        <v>114807</v>
       </c>
       <c r="AK47" t="n">
-        <v>111536</v>
+        <v>118738</v>
       </c>
       <c r="AL47" t="n">
-        <v>113232</v>
+        <v>120852</v>
       </c>
       <c r="AM47" t="n">
-        <v>114807</v>
+        <v>124995</v>
       </c>
       <c r="AN47" t="n">
-        <v>118738</v>
+        <v>126138</v>
       </c>
       <c r="AO47" t="n">
-        <v>120852</v>
+        <v>131899</v>
       </c>
       <c r="AP47" t="n">
-        <v>124995</v>
+        <v>133295</v>
       </c>
       <c r="AQ47" t="n">
-        <v>126138</v>
+        <v>140519.008</v>
       </c>
       <c r="AR47" t="n">
-        <v>131899</v>
+        <v>142767.008</v>
       </c>
       <c r="AS47" t="n">
-        <v>133295</v>
+        <v>160528</v>
       </c>
       <c r="AT47" t="n">
-        <v>140519.008</v>
+        <v>164979.008</v>
       </c>
       <c r="AU47" t="n">
-        <v>142767.008</v>
+        <v>162928.992</v>
       </c>
       <c r="AV47" t="n">
-        <v>160528</v>
+        <v>169847.008</v>
       </c>
       <c r="AW47" t="n">
-        <v>164979.008</v>
+        <v>175440.992</v>
       </c>
       <c r="AX47" t="n">
-        <v>162928.992</v>
+        <v>184987.008</v>
       </c>
       <c r="AY47" t="n">
-        <v>169847.008</v>
+        <v>187398</v>
       </c>
       <c r="AZ47" t="n">
-        <v>175440.992</v>
+        <v>200468</v>
       </c>
       <c r="BA47" t="n">
-        <v>184987.008</v>
+        <v>202747.008</v>
       </c>
       <c r="BB47" t="n">
-        <v>187398</v>
+        <v>211338</v>
       </c>
       <c r="BC47" t="n">
-        <v>200468</v>
+        <v>218232</v>
       </c>
       <c r="BD47" t="n">
-        <v>202747.008</v>
+        <v>232198</v>
       </c>
       <c r="BE47" t="n">
-        <v>211338</v>
+        <v>237288.992</v>
       </c>
       <c r="BF47" t="n">
-        <v>218232</v>
+        <v>246847.008</v>
       </c>
       <c r="BG47" t="n">
-        <v>232198</v>
+        <v>254976.992</v>
       </c>
       <c r="BH47" t="n">
-        <v>237288.992</v>
+        <v>256991.008</v>
       </c>
       <c r="BI47" t="n">
-        <v>246847.008</v>
+        <v>266382</v>
       </c>
     </row>
     <row r="48">
@@ -9349,112 +9349,112 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>26534</v>
+        <v>32015</v>
       </c>
       <c r="C48" t="n">
-        <v>26534</v>
+        <v>32015</v>
       </c>
       <c r="D48" t="n">
-        <v>26534</v>
+        <v>32015</v>
       </c>
       <c r="E48" t="n">
         <v>32015</v>
       </c>
       <c r="F48" t="n">
-        <v>32015</v>
+        <v>39464</v>
       </c>
       <c r="G48" t="n">
-        <v>32015</v>
+        <v>39464</v>
       </c>
       <c r="H48" t="n">
-        <v>32015</v>
+        <v>39464</v>
       </c>
       <c r="I48" t="n">
         <v>39464</v>
       </c>
       <c r="J48" t="n">
-        <v>39464</v>
+        <v>45223</v>
       </c>
       <c r="K48" t="n">
-        <v>39464</v>
+        <v>45397</v>
       </c>
       <c r="L48" t="n">
-        <v>39464</v>
+        <v>52250</v>
       </c>
       <c r="M48" t="n">
-        <v>45223</v>
+        <v>52250</v>
       </c>
       <c r="N48" t="n">
-        <v>45397</v>
+        <v>52250</v>
       </c>
       <c r="O48" t="n">
         <v>52250</v>
       </c>
       <c r="P48" t="n">
-        <v>52250</v>
+        <v>62261</v>
       </c>
       <c r="Q48" t="n">
-        <v>52250</v>
+        <v>62261</v>
       </c>
       <c r="R48" t="n">
-        <v>52250</v>
+        <v>62261</v>
       </c>
       <c r="S48" t="n">
         <v>62261</v>
       </c>
       <c r="T48" t="n">
-        <v>62261</v>
+        <v>68912</v>
       </c>
       <c r="U48" t="n">
-        <v>62261</v>
+        <v>68912</v>
       </c>
       <c r="V48" t="n">
-        <v>62261</v>
+        <v>68912</v>
       </c>
       <c r="W48" t="n">
         <v>68912</v>
       </c>
       <c r="X48" t="n">
-        <v>68912</v>
+        <v>76232</v>
       </c>
       <c r="Y48" t="n">
-        <v>68912</v>
+        <v>76231</v>
       </c>
       <c r="Z48" t="n">
-        <v>68912</v>
+        <v>76232</v>
       </c>
       <c r="AA48" t="n">
         <v>76232</v>
       </c>
       <c r="AB48" t="n">
-        <v>76231</v>
+        <v>89453</v>
       </c>
       <c r="AC48" t="n">
-        <v>76232</v>
+        <v>89453</v>
       </c>
       <c r="AD48" t="n">
-        <v>76232</v>
+        <v>89453</v>
       </c>
       <c r="AE48" t="n">
         <v>89453</v>
       </c>
       <c r="AF48" t="n">
-        <v>89453</v>
+        <v>96293</v>
       </c>
       <c r="AG48" t="n">
-        <v>89453</v>
+        <v>96293</v>
       </c>
       <c r="AH48" t="n">
-        <v>89453</v>
+        <v>96293</v>
       </c>
       <c r="AI48" t="n">
-        <v>96293</v>
+        <v>105675</v>
       </c>
       <c r="AJ48" t="n">
-        <v>96293</v>
+        <v>105675</v>
       </c>
       <c r="AK48" t="n">
-        <v>96293</v>
+        <v>105675</v>
       </c>
       <c r="AL48" t="n">
         <v>105675</v>
@@ -9463,67 +9463,67 @@
         <v>105675</v>
       </c>
       <c r="AN48" t="n">
-        <v>105675</v>
+        <v>113444</v>
       </c>
       <c r="AO48" t="n">
-        <v>105675</v>
+        <v>113444</v>
       </c>
       <c r="AP48" t="n">
-        <v>105675</v>
+        <v>113445</v>
       </c>
       <c r="AQ48" t="n">
-        <v>113444</v>
+        <v>113445</v>
       </c>
       <c r="AR48" t="n">
-        <v>113444</v>
+        <v>124278</v>
       </c>
       <c r="AS48" t="n">
-        <v>113445</v>
+        <v>124278</v>
       </c>
       <c r="AT48" t="n">
-        <v>113445</v>
+        <v>124278</v>
       </c>
       <c r="AU48" t="n">
-        <v>124278</v>
+        <v>149238</v>
       </c>
       <c r="AV48" t="n">
-        <v>124278</v>
+        <v>149238</v>
       </c>
       <c r="AW48" t="n">
-        <v>124278</v>
+        <v>149238</v>
       </c>
       <c r="AX48" t="n">
         <v>149238</v>
       </c>
       <c r="AY48" t="n">
-        <v>149238</v>
+        <v>159060</v>
       </c>
       <c r="AZ48" t="n">
-        <v>149238</v>
+        <v>159060</v>
       </c>
       <c r="BA48" t="n">
-        <v>149238</v>
+        <v>159060</v>
       </c>
       <c r="BB48" t="n">
         <v>159060</v>
       </c>
       <c r="BC48" t="n">
-        <v>159060</v>
+        <v>186866</v>
       </c>
       <c r="BD48" t="n">
-        <v>159060</v>
+        <v>186866</v>
       </c>
       <c r="BE48" t="n">
-        <v>159060</v>
+        <v>186866</v>
       </c>
       <c r="BF48" t="n">
-        <v>186866</v>
+        <v>218604.992</v>
       </c>
       <c r="BG48" t="n">
-        <v>186866</v>
+        <v>218604.992</v>
       </c>
       <c r="BH48" t="n">
-        <v>186866</v>
+        <v>218604.992</v>
       </c>
       <c r="BI48" t="n">
         <v>218604.992</v>
@@ -9563,13 +9563,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="N49" t="n">
         <v>-174</v>
@@ -9910,184 +9910,184 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3802</v>
+        <v>3692</v>
       </c>
       <c r="C51" t="n">
-        <v>5988</v>
+        <v>6290</v>
       </c>
       <c r="D51" t="n">
-        <v>7022</v>
+        <v>9102</v>
       </c>
       <c r="E51" t="n">
-        <v>3692</v>
+        <v>9450</v>
       </c>
       <c r="F51" t="n">
-        <v>6290</v>
+        <v>4051</v>
       </c>
       <c r="G51" t="n">
-        <v>9102</v>
+        <v>5424</v>
       </c>
       <c r="H51" t="n">
+        <v>7028</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8106</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3682</v>
+      </c>
+      <c r="K51" t="n">
+        <v>13403</v>
+      </c>
+      <c r="L51" t="n">
         <v>9450</v>
       </c>
-      <c r="I51" t="n">
-        <v>4051</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5424</v>
-      </c>
-      <c r="K51" t="n">
-        <v>7028</v>
-      </c>
-      <c r="L51" t="n">
-        <v>8106</v>
-      </c>
       <c r="M51" t="n">
-        <v>3682</v>
+        <v>14134</v>
       </c>
       <c r="N51" t="n">
-        <v>13403</v>
+        <v>13390</v>
       </c>
       <c r="O51" t="n">
-        <v>9450</v>
+        <v>16896</v>
       </c>
       <c r="P51" t="n">
-        <v>14134</v>
+        <v>8608</v>
       </c>
       <c r="Q51" t="n">
-        <v>13390</v>
+        <v>10044</v>
       </c>
       <c r="R51" t="n">
-        <v>16896</v>
+        <v>10440</v>
       </c>
       <c r="S51" t="n">
-        <v>8608</v>
+        <v>13519</v>
       </c>
       <c r="T51" t="n">
-        <v>10044</v>
+        <v>7572</v>
       </c>
       <c r="U51" t="n">
-        <v>10440</v>
+        <v>10614</v>
       </c>
       <c r="V51" t="n">
-        <v>13519</v>
+        <v>11556</v>
       </c>
       <c r="W51" t="n">
-        <v>7572</v>
+        <v>17245</v>
       </c>
       <c r="X51" t="n">
-        <v>10614</v>
+        <v>14705</v>
       </c>
       <c r="Y51" t="n">
-        <v>11556</v>
+        <v>18006</v>
       </c>
       <c r="Z51" t="n">
-        <v>17245</v>
+        <v>18268</v>
       </c>
       <c r="AA51" t="n">
-        <v>14705</v>
+        <v>20558</v>
       </c>
       <c r="AB51" t="n">
-        <v>18006</v>
+        <v>9618</v>
       </c>
       <c r="AC51" t="n">
-        <v>18268</v>
+        <v>11491</v>
       </c>
       <c r="AD51" t="n">
-        <v>20558</v>
+        <v>12311</v>
       </c>
       <c r="AE51" t="n">
-        <v>9618</v>
+        <v>16445</v>
       </c>
       <c r="AF51" t="n">
-        <v>11491</v>
+        <v>12127</v>
       </c>
       <c r="AG51" t="n">
-        <v>12311</v>
+        <v>14539</v>
       </c>
       <c r="AH51" t="n">
-        <v>16445</v>
+        <v>15417</v>
       </c>
       <c r="AI51" t="n">
-        <v>12127</v>
+        <v>6035</v>
       </c>
       <c r="AJ51" t="n">
-        <v>14539</v>
+        <v>6035</v>
       </c>
       <c r="AK51" t="n">
-        <v>15417</v>
+        <v>6035</v>
       </c>
       <c r="AL51" t="n">
-        <v>6035</v>
+        <v>15351</v>
       </c>
       <c r="AM51" t="n">
-        <v>6035</v>
+        <v>15351</v>
       </c>
       <c r="AN51" t="n">
-        <v>6035</v>
+        <v>6572</v>
       </c>
       <c r="AO51" t="n">
-        <v>15351</v>
+        <v>6572</v>
       </c>
       <c r="AP51" t="n">
-        <v>15351</v>
+        <v>20024</v>
       </c>
       <c r="AQ51" t="n">
-        <v>6572</v>
+        <v>20024</v>
       </c>
       <c r="AR51" t="n">
-        <v>6572</v>
+        <v>7348</v>
       </c>
       <c r="AS51" t="n">
-        <v>20024</v>
+        <v>36424</v>
       </c>
       <c r="AT51" t="n">
-        <v>20024</v>
+        <v>36424</v>
       </c>
       <c r="AU51" t="n">
-        <v>7348</v>
+        <v>9024</v>
       </c>
       <c r="AV51" t="n">
-        <v>36424</v>
+        <v>9024</v>
       </c>
       <c r="AW51" t="n">
-        <v>36424</v>
+        <v>26377</v>
       </c>
       <c r="AX51" t="n">
-        <v>9024</v>
+        <v>26377</v>
       </c>
       <c r="AY51" t="n">
-        <v>9024</v>
+        <v>10025</v>
       </c>
       <c r="AZ51" t="n">
-        <v>26377</v>
+        <v>10025</v>
       </c>
       <c r="BA51" t="n">
-        <v>26377</v>
+        <v>43861</v>
       </c>
       <c r="BB51" t="n">
-        <v>10025</v>
+        <v>43861</v>
       </c>
       <c r="BC51" t="n">
-        <v>10025</v>
+        <v>11976</v>
       </c>
       <c r="BD51" t="n">
-        <v>43861</v>
+        <v>11976</v>
       </c>
       <c r="BE51" t="n">
-        <v>43861</v>
+        <v>50597</v>
       </c>
       <c r="BF51" t="n">
-        <v>11976</v>
+        <v>14203</v>
       </c>
       <c r="BG51" t="n">
-        <v>11976</v>
+        <v>14203</v>
       </c>
       <c r="BH51" t="n">
-        <v>50597</v>
+        <v>38560</v>
       </c>
       <c r="BI51" t="n">
-        <v>14203</v>
+        <v>38560</v>
       </c>
     </row>
     <row r="52">
@@ -10196,85 +10196,85 @@
         <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>3271</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>7202</v>
       </c>
       <c r="AL52" t="n">
-        <v>1696</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>3271</v>
+        <v>4143</v>
       </c>
       <c r="AN52" t="n">
-        <v>7202</v>
+        <v>6296</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>12057</v>
       </c>
       <c r="AP52" t="n">
-        <v>4143</v>
+        <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>6296</v>
+        <v>7224</v>
       </c>
       <c r="AR52" t="n">
-        <v>12057</v>
+        <v>11315</v>
       </c>
       <c r="AS52" t="n">
         <v>0</v>
       </c>
       <c r="AT52" t="n">
-        <v>7224</v>
+        <v>4451</v>
       </c>
       <c r="AU52" t="n">
-        <v>11315</v>
+        <v>4841</v>
       </c>
       <c r="AV52" t="n">
-        <v>0</v>
+        <v>11759</v>
       </c>
       <c r="AW52" t="n">
-        <v>4451</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
-        <v>4841</v>
+        <v>9546</v>
       </c>
       <c r="AY52" t="n">
-        <v>11759</v>
+        <v>18487</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>31557</v>
       </c>
       <c r="BA52" t="n">
-        <v>9546</v>
+        <v>0</v>
       </c>
       <c r="BB52" t="n">
-        <v>18487</v>
+        <v>8591</v>
       </c>
       <c r="BC52" t="n">
-        <v>31557</v>
+        <v>19564</v>
       </c>
       <c r="BD52" t="n">
-        <v>0</v>
+        <v>33530</v>
       </c>
       <c r="BE52" t="n">
-        <v>8591</v>
+        <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>19564</v>
+        <v>14213</v>
       </c>
       <c r="BG52" t="n">
-        <v>33530</v>
+        <v>22343</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
       </c>
       <c r="BI52" t="n">
-        <v>14213</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="53">
@@ -11032,41 +11032,35 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33615</v>
+        <v>39103</v>
       </c>
       <c r="C57" t="n">
-        <v>37473</v>
+        <v>52478</v>
       </c>
       <c r="D57" t="n">
-        <v>34217</v>
+        <v>37276</v>
       </c>
       <c r="E57" t="n">
-        <v>39103</v>
+        <v>50616</v>
       </c>
       <c r="F57" t="n">
-        <v>52478</v>
+        <v>44263</v>
       </c>
       <c r="G57" t="n">
-        <v>37276</v>
+        <v>58669</v>
       </c>
       <c r="H57" t="n">
-        <v>50616</v>
+        <v>54656.992</v>
       </c>
       <c r="I57" t="n">
-        <v>44263</v>
+        <v>54469</v>
       </c>
       <c r="J57" t="n">
-        <v>58669</v>
-      </c>
-      <c r="K57" t="n">
-        <v>54656.992</v>
-      </c>
-      <c r="L57" t="n">
         <v>54469</v>
       </c>
-      <c r="M57" t="n">
-        <v>54469</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -11123,41 +11117,35 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-5886</v>
+        <v>-6306</v>
       </c>
       <c r="C58" t="n">
-        <v>-6117</v>
+        <v>-7447</v>
       </c>
       <c r="D58" t="n">
-        <v>-5201</v>
+        <v>-6195</v>
       </c>
       <c r="E58" t="n">
-        <v>-6306</v>
+        <v>-7489</v>
       </c>
       <c r="F58" t="n">
-        <v>-7447</v>
+        <v>-6938</v>
       </c>
       <c r="G58" t="n">
-        <v>-6195</v>
+        <v>-10756</v>
       </c>
       <c r="H58" t="n">
-        <v>-7489</v>
+        <v>-8997</v>
       </c>
       <c r="I58" t="n">
-        <v>-6938</v>
+        <v>-7364</v>
       </c>
       <c r="J58" t="n">
-        <v>-10756</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-8997</v>
-      </c>
-      <c r="L58" t="n">
         <v>-7364</v>
       </c>
-      <c r="M58" t="n">
-        <v>-7364</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -11214,182 +11202,182 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>27729</v>
+        <v>32797</v>
       </c>
       <c r="C59" t="n">
-        <v>31356</v>
+        <v>45031</v>
       </c>
       <c r="D59" t="n">
-        <v>29016</v>
+        <v>31080.992</v>
       </c>
       <c r="E59" t="n">
-        <v>32797</v>
+        <v>43127</v>
       </c>
       <c r="F59" t="n">
-        <v>45031</v>
+        <v>37325</v>
       </c>
       <c r="G59" t="n">
-        <v>31080.992</v>
+        <v>47913</v>
       </c>
       <c r="H59" t="n">
-        <v>43127</v>
+        <v>45659.992</v>
       </c>
       <c r="I59" t="n">
-        <v>37325</v>
+        <v>47105</v>
       </c>
       <c r="J59" t="n">
-        <v>47913</v>
+        <v>47105</v>
       </c>
       <c r="K59" t="n">
-        <v>45659.992</v>
+        <v>92188</v>
       </c>
       <c r="L59" t="n">
-        <v>47105</v>
+        <v>83281</v>
       </c>
       <c r="M59" t="n">
-        <v>47105</v>
+        <v>66880</v>
       </c>
       <c r="N59" t="n">
-        <v>92188</v>
+        <v>72255.992</v>
       </c>
       <c r="O59" t="n">
-        <v>83281</v>
+        <v>102612</v>
       </c>
       <c r="P59" t="n">
-        <v>66880</v>
+        <v>73687</v>
       </c>
       <c r="Q59" t="n">
-        <v>72255.992</v>
+        <v>62498</v>
       </c>
       <c r="R59" t="n">
-        <v>102612</v>
+        <v>76307</v>
       </c>
       <c r="S59" t="n">
-        <v>73687</v>
+        <v>73453</v>
       </c>
       <c r="T59" t="n">
-        <v>62498</v>
+        <v>83585</v>
       </c>
       <c r="U59" t="n">
-        <v>76307</v>
+        <v>58896</v>
       </c>
       <c r="V59" t="n">
-        <v>73453</v>
+        <v>60529.008</v>
       </c>
       <c r="W59" t="n">
-        <v>83585</v>
+        <v>46736</v>
       </c>
       <c r="X59" t="n">
-        <v>58896</v>
+        <v>83791</v>
       </c>
       <c r="Y59" t="n">
-        <v>60529.008</v>
+        <v>73653</v>
       </c>
       <c r="Z59" t="n">
-        <v>46736</v>
+        <v>54868</v>
       </c>
       <c r="AA59" t="n">
-        <v>83791</v>
+        <v>40369</v>
       </c>
       <c r="AB59" t="n">
-        <v>73653</v>
+        <v>47482</v>
       </c>
       <c r="AC59" t="n">
-        <v>54868</v>
+        <v>47368</v>
       </c>
       <c r="AD59" t="n">
-        <v>40369</v>
+        <v>64524.008</v>
       </c>
       <c r="AE59" t="n">
-        <v>47482</v>
+        <v>45443</v>
       </c>
       <c r="AF59" t="n">
-        <v>47368</v>
+        <v>49883</v>
       </c>
       <c r="AG59" t="n">
-        <v>64524.008</v>
+        <v>55399</v>
       </c>
       <c r="AH59" t="n">
-        <v>45443</v>
+        <v>53507.992</v>
       </c>
       <c r="AI59" t="n">
-        <v>49883</v>
+        <v>52149</v>
       </c>
       <c r="AJ59" t="n">
-        <v>55399</v>
+        <v>55760</v>
       </c>
       <c r="AK59" t="n">
-        <v>53507.992</v>
+        <v>75515</v>
       </c>
       <c r="AL59" t="n">
-        <v>52149</v>
+        <v>83743.008</v>
       </c>
       <c r="AM59" t="n">
-        <v>55760</v>
+        <v>66101</v>
       </c>
       <c r="AN59" t="n">
-        <v>75515</v>
+        <v>57123</v>
       </c>
       <c r="AO59" t="n">
-        <v>83743.008</v>
+        <v>71507</v>
       </c>
       <c r="AP59" t="n">
-        <v>66101</v>
+        <v>91653.992</v>
       </c>
       <c r="AQ59" t="n">
-        <v>57123</v>
+        <v>109757</v>
       </c>
       <c r="AR59" t="n">
-        <v>71507</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>91653.992</v>
-      </c>
+        <v>126616</v>
+      </c>
+      <c r="AS59" t="inlineStr"/>
       <c r="AT59" t="n">
-        <v>109757</v>
+        <v>126758</v>
       </c>
       <c r="AU59" t="n">
-        <v>126616</v>
-      </c>
-      <c r="AV59" t="inlineStr"/>
+        <v>107811</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>143764</v>
+      </c>
       <c r="AW59" t="n">
-        <v>126758</v>
+        <v>198086.016</v>
       </c>
       <c r="AX59" t="n">
-        <v>107811</v>
+        <v>168531.008</v>
       </c>
       <c r="AY59" t="n">
-        <v>143764</v>
+        <v>191222</v>
       </c>
       <c r="AZ59" t="n">
-        <v>198086.016</v>
+        <v>153983.024</v>
       </c>
       <c r="BA59" t="n">
-        <v>168531.008</v>
+        <v>149804.992</v>
       </c>
       <c r="BB59" t="n">
-        <v>191222</v>
+        <v>203688</v>
       </c>
       <c r="BC59" t="n">
-        <v>153983.024</v>
+        <v>235996.992</v>
       </c>
       <c r="BD59" t="n">
-        <v>149804.992</v>
+        <v>250793.024</v>
       </c>
       <c r="BE59" t="n">
-        <v>203688</v>
+        <v>224760</v>
       </c>
       <c r="BF59" t="n">
-        <v>235996.992</v>
+        <v>255911.008</v>
       </c>
       <c r="BG59" t="n">
-        <v>250793.024</v>
+        <v>266030.016</v>
       </c>
       <c r="BH59" t="n">
-        <v>224760</v>
+        <v>294744</v>
       </c>
       <c r="BI59" t="n">
-        <v>255911.008</v>
+        <v>316430.016</v>
       </c>
     </row>
     <row r="60">
@@ -11399,182 +11387,182 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-25222</v>
+        <v>-29647</v>
       </c>
       <c r="C60" t="n">
-        <v>-29118</v>
+        <v>-41879</v>
       </c>
       <c r="D60" t="n">
-        <v>-26395</v>
+        <v>-28812</v>
       </c>
       <c r="E60" t="n">
-        <v>-29647</v>
+        <v>-39979</v>
       </c>
       <c r="F60" t="n">
-        <v>-41879</v>
+        <v>-36398</v>
       </c>
       <c r="G60" t="n">
-        <v>-28812</v>
+        <v>-46324</v>
       </c>
       <c r="H60" t="n">
-        <v>-39979</v>
+        <v>-43833</v>
       </c>
       <c r="I60" t="n">
-        <v>-36398</v>
+        <v>-44655</v>
       </c>
       <c r="J60" t="n">
-        <v>-46324</v>
+        <v>-44655</v>
       </c>
       <c r="K60" t="n">
-        <v>-43833</v>
+        <v>-89815</v>
       </c>
       <c r="L60" t="n">
-        <v>-44655</v>
+        <v>-81156</v>
       </c>
       <c r="M60" t="n">
-        <v>-44655</v>
+        <v>-63552</v>
       </c>
       <c r="N60" t="n">
-        <v>-89815</v>
+        <v>-70915.016</v>
       </c>
       <c r="O60" t="n">
-        <v>-81156</v>
+        <v>-100640</v>
       </c>
       <c r="P60" t="n">
-        <v>-63552</v>
+        <v>-72045</v>
       </c>
       <c r="Q60" t="n">
-        <v>-70915.016</v>
+        <v>-59541</v>
       </c>
       <c r="R60" t="n">
-        <v>-100640</v>
+        <v>-71902.992</v>
       </c>
       <c r="S60" t="n">
-        <v>-72045</v>
+        <v>-69825</v>
       </c>
       <c r="T60" t="n">
-        <v>-59541</v>
+        <v>-78282</v>
       </c>
       <c r="U60" t="n">
-        <v>-71902.992</v>
+        <v>-53189</v>
       </c>
       <c r="V60" t="n">
-        <v>-69825</v>
+        <v>-53396.992</v>
       </c>
       <c r="W60" t="n">
-        <v>-78282</v>
+        <v>-40942</v>
       </c>
       <c r="X60" t="n">
-        <v>-53189</v>
+        <v>-75452</v>
       </c>
       <c r="Y60" t="n">
-        <v>-53396.992</v>
+        <v>-67349</v>
       </c>
       <c r="Z60" t="n">
-        <v>-40942</v>
+        <v>-48048.008</v>
       </c>
       <c r="AA60" t="n">
-        <v>-75452</v>
+        <v>-35857</v>
       </c>
       <c r="AB60" t="n">
-        <v>-67349</v>
+        <v>-43093</v>
       </c>
       <c r="AC60" t="n">
-        <v>-48048.008</v>
+        <v>-42307</v>
       </c>
       <c r="AD60" t="n">
-        <v>-35857</v>
+        <v>-58805</v>
       </c>
       <c r="AE60" t="n">
-        <v>-43093</v>
+        <v>-40616</v>
       </c>
       <c r="AF60" t="n">
-        <v>-42307</v>
+        <v>-45109</v>
       </c>
       <c r="AG60" t="n">
-        <v>-58805</v>
+        <v>-50110</v>
       </c>
       <c r="AH60" t="n">
-        <v>-40616</v>
+        <v>-48157</v>
       </c>
       <c r="AI60" t="n">
-        <v>-45109</v>
+        <v>-47199</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-50110</v>
+        <v>-50843</v>
       </c>
       <c r="AK60" t="n">
-        <v>-48157</v>
+        <v>-69905</v>
       </c>
       <c r="AL60" t="n">
-        <v>-47199</v>
+        <v>-77624.008</v>
       </c>
       <c r="AM60" t="n">
-        <v>-50843</v>
+        <v>-60779</v>
       </c>
       <c r="AN60" t="n">
-        <v>-69905</v>
+        <v>-51254</v>
       </c>
       <c r="AO60" t="n">
-        <v>-77624.008</v>
+        <v>-63685</v>
       </c>
       <c r="AP60" t="n">
-        <v>-60779</v>
+        <v>-80902</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-51254</v>
+        <v>-100931</v>
       </c>
       <c r="AR60" t="n">
-        <v>-63685</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-80902</v>
-      </c>
+        <v>-116551</v>
+      </c>
+      <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="n">
-        <v>-100931</v>
+        <v>-118960</v>
       </c>
       <c r="AU60" t="n">
-        <v>-116551</v>
-      </c>
-      <c r="AV60" t="inlineStr"/>
+        <v>-100059</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-129537</v>
+      </c>
       <c r="AW60" t="n">
-        <v>-118960</v>
+        <v>-183156</v>
       </c>
       <c r="AX60" t="n">
-        <v>-100059</v>
+        <v>-154714</v>
       </c>
       <c r="AY60" t="n">
-        <v>-129537</v>
+        <v>-172546</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-183156</v>
+        <v>-134891.008</v>
       </c>
       <c r="BA60" t="n">
-        <v>-154714</v>
+        <v>-132129</v>
       </c>
       <c r="BB60" t="n">
-        <v>-172546</v>
+        <v>-182351.008</v>
       </c>
       <c r="BC60" t="n">
-        <v>-134891.008</v>
+        <v>-210118</v>
       </c>
       <c r="BD60" t="n">
-        <v>-132129</v>
+        <v>-230253.952</v>
       </c>
       <c r="BE60" t="n">
-        <v>-182351.008</v>
+        <v>-202998</v>
       </c>
       <c r="BF60" t="n">
-        <v>-210118</v>
+        <v>-238074</v>
       </c>
       <c r="BG60" t="n">
-        <v>-230253.952</v>
+        <v>-251076.992</v>
       </c>
       <c r="BH60" t="n">
-        <v>-202998</v>
+        <v>-275832</v>
       </c>
       <c r="BI60" t="n">
-        <v>-238074</v>
+        <v>-296727.008</v>
       </c>
     </row>
     <row r="61">
@@ -11584,182 +11572,182 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2507</v>
+        <v>3150</v>
       </c>
       <c r="C61" t="n">
-        <v>2238</v>
+        <v>3152</v>
       </c>
       <c r="D61" t="n">
-        <v>2621</v>
+        <v>2269</v>
       </c>
       <c r="E61" t="n">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="F61" t="n">
-        <v>3152</v>
+        <v>927</v>
       </c>
       <c r="G61" t="n">
-        <v>2269</v>
+        <v>1589</v>
       </c>
       <c r="H61" t="n">
-        <v>3148</v>
+        <v>1827</v>
       </c>
       <c r="I61" t="n">
-        <v>927</v>
+        <v>2450</v>
       </c>
       <c r="J61" t="n">
-        <v>1589</v>
+        <v>2450</v>
       </c>
       <c r="K61" t="n">
-        <v>1827</v>
+        <v>2373</v>
       </c>
       <c r="L61" t="n">
-        <v>2450</v>
+        <v>2125</v>
       </c>
       <c r="M61" t="n">
-        <v>2450</v>
+        <v>3328</v>
       </c>
       <c r="N61" t="n">
-        <v>2373</v>
+        <v>1341</v>
       </c>
       <c r="O61" t="n">
-        <v>2125</v>
+        <v>1972</v>
       </c>
       <c r="P61" t="n">
-        <v>3328</v>
+        <v>1642</v>
       </c>
       <c r="Q61" t="n">
-        <v>1341</v>
+        <v>2957</v>
       </c>
       <c r="R61" t="n">
-        <v>1972</v>
+        <v>4404</v>
       </c>
       <c r="S61" t="n">
-        <v>1642</v>
+        <v>3628</v>
       </c>
       <c r="T61" t="n">
-        <v>2957</v>
+        <v>5303</v>
       </c>
       <c r="U61" t="n">
-        <v>4404</v>
+        <v>5707</v>
       </c>
       <c r="V61" t="n">
-        <v>3628</v>
+        <v>7132</v>
       </c>
       <c r="W61" t="n">
-        <v>5303</v>
+        <v>5794</v>
       </c>
       <c r="X61" t="n">
-        <v>5707</v>
+        <v>8339</v>
       </c>
       <c r="Y61" t="n">
-        <v>7132</v>
+        <v>6304</v>
       </c>
       <c r="Z61" t="n">
-        <v>5794</v>
+        <v>6820</v>
       </c>
       <c r="AA61" t="n">
-        <v>8339</v>
+        <v>4512</v>
       </c>
       <c r="AB61" t="n">
-        <v>6304</v>
+        <v>4389</v>
       </c>
       <c r="AC61" t="n">
-        <v>6820</v>
+        <v>5061</v>
       </c>
       <c r="AD61" t="n">
-        <v>4512</v>
+        <v>5719</v>
       </c>
       <c r="AE61" t="n">
-        <v>4389</v>
+        <v>4827</v>
       </c>
       <c r="AF61" t="n">
-        <v>5061</v>
+        <v>4774</v>
       </c>
       <c r="AG61" t="n">
-        <v>5719</v>
+        <v>5289</v>
       </c>
       <c r="AH61" t="n">
-        <v>4827</v>
+        <v>5351</v>
       </c>
       <c r="AI61" t="n">
-        <v>4774</v>
+        <v>4950</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5289</v>
+        <v>4917</v>
       </c>
       <c r="AK61" t="n">
-        <v>5351</v>
+        <v>5610</v>
       </c>
       <c r="AL61" t="n">
-        <v>4950</v>
+        <v>6119</v>
       </c>
       <c r="AM61" t="n">
-        <v>4917</v>
+        <v>5322</v>
       </c>
       <c r="AN61" t="n">
-        <v>5610</v>
+        <v>5869</v>
       </c>
       <c r="AO61" t="n">
-        <v>6119</v>
+        <v>7822</v>
       </c>
       <c r="AP61" t="n">
-        <v>5322</v>
+        <v>10752</v>
       </c>
       <c r="AQ61" t="n">
-        <v>5869</v>
+        <v>8826</v>
       </c>
       <c r="AR61" t="n">
-        <v>7822</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>10752</v>
-      </c>
+        <v>10065</v>
+      </c>
+      <c r="AS61" t="inlineStr"/>
       <c r="AT61" t="n">
-        <v>8826</v>
+        <v>7798</v>
       </c>
       <c r="AU61" t="n">
-        <v>10065</v>
-      </c>
-      <c r="AV61" t="inlineStr"/>
+        <v>7752</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>14227</v>
+      </c>
       <c r="AW61" t="n">
-        <v>7798</v>
+        <v>14930</v>
       </c>
       <c r="AX61" t="n">
-        <v>7752</v>
+        <v>13817</v>
       </c>
       <c r="AY61" t="n">
-        <v>14227</v>
+        <v>18676</v>
       </c>
       <c r="AZ61" t="n">
-        <v>14930</v>
+        <v>19092</v>
       </c>
       <c r="BA61" t="n">
-        <v>13817</v>
+        <v>17676</v>
       </c>
       <c r="BB61" t="n">
-        <v>18676</v>
+        <v>21337</v>
       </c>
       <c r="BC61" t="n">
-        <v>19092</v>
+        <v>25879</v>
       </c>
       <c r="BD61" t="n">
-        <v>17676</v>
+        <v>20539</v>
       </c>
       <c r="BE61" t="n">
-        <v>21337</v>
+        <v>21762</v>
       </c>
       <c r="BF61" t="n">
-        <v>25879</v>
+        <v>17837</v>
       </c>
       <c r="BG61" t="n">
-        <v>20539</v>
+        <v>14953</v>
       </c>
       <c r="BH61" t="n">
-        <v>21762</v>
+        <v>18912</v>
       </c>
       <c r="BI61" t="n">
-        <v>17837</v>
+        <v>19703</v>
       </c>
     </row>
     <row r="62">
@@ -11769,182 +11757,182 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1565</v>
+        <v>-1966</v>
       </c>
       <c r="C62" t="n">
-        <v>-2341</v>
+        <v>-2334</v>
       </c>
       <c r="D62" t="n">
-        <v>-1716</v>
+        <v>-2657</v>
       </c>
       <c r="E62" t="n">
-        <v>-1966</v>
+        <v>-1973</v>
       </c>
       <c r="F62" t="n">
-        <v>-2334</v>
+        <v>-2073</v>
       </c>
       <c r="G62" t="n">
-        <v>-2657</v>
+        <v>-2065</v>
       </c>
       <c r="H62" t="n">
-        <v>-1973</v>
+        <v>-2437</v>
       </c>
       <c r="I62" t="n">
-        <v>-2073</v>
+        <v>-2426</v>
       </c>
       <c r="J62" t="n">
-        <v>-2065</v>
+        <v>-2426</v>
       </c>
       <c r="K62" t="n">
-        <v>-2437</v>
+        <v>-3339</v>
       </c>
       <c r="L62" t="n">
-        <v>-2426</v>
+        <v>-3356</v>
       </c>
       <c r="M62" t="n">
-        <v>-2426</v>
+        <v>-3676</v>
       </c>
       <c r="N62" t="n">
-        <v>-3339</v>
+        <v>-3826</v>
       </c>
       <c r="O62" t="n">
-        <v>-3356</v>
+        <v>-3249</v>
       </c>
       <c r="P62" t="n">
-        <v>-3676</v>
+        <v>-3689</v>
       </c>
       <c r="Q62" t="n">
-        <v>-3826</v>
+        <v>-3365</v>
       </c>
       <c r="R62" t="n">
-        <v>-3249</v>
+        <v>-3706</v>
       </c>
       <c r="S62" t="n">
-        <v>-3689</v>
+        <v>-3603</v>
       </c>
       <c r="T62" t="n">
-        <v>-3365</v>
+        <v>-3919</v>
       </c>
       <c r="U62" t="n">
-        <v>-3706</v>
+        <v>-3491</v>
       </c>
       <c r="V62" t="n">
-        <v>-3603</v>
+        <v>-4932</v>
       </c>
       <c r="W62" t="n">
-        <v>-3919</v>
+        <v>-4014</v>
       </c>
       <c r="X62" t="n">
-        <v>-3491</v>
+        <v>-4828</v>
       </c>
       <c r="Y62" t="n">
-        <v>-4932</v>
+        <v>-4331</v>
       </c>
       <c r="Z62" t="n">
-        <v>-4014</v>
+        <v>-6331</v>
       </c>
       <c r="AA62" t="n">
-        <v>-4828</v>
+        <v>-3423</v>
       </c>
       <c r="AB62" t="n">
-        <v>-4331</v>
+        <v>-4917</v>
       </c>
       <c r="AC62" t="n">
-        <v>-6331</v>
+        <v>-3272</v>
       </c>
       <c r="AD62" t="n">
-        <v>-3423</v>
+        <v>-3776</v>
       </c>
       <c r="AE62" t="n">
-        <v>-4917</v>
+        <v>-3432</v>
       </c>
       <c r="AF62" t="n">
-        <v>-3272</v>
+        <v>-3684</v>
       </c>
       <c r="AG62" t="n">
-        <v>-3776</v>
+        <v>-3545</v>
       </c>
       <c r="AH62" t="n">
-        <v>-3432</v>
+        <v>-3456</v>
       </c>
       <c r="AI62" t="n">
-        <v>-3684</v>
+        <v>-3296</v>
       </c>
       <c r="AJ62" t="n">
-        <v>-3545</v>
+        <v>-3816</v>
       </c>
       <c r="AK62" t="n">
-        <v>-3456</v>
+        <v>-3519</v>
       </c>
       <c r="AL62" t="n">
-        <v>-3296</v>
+        <v>-4142</v>
       </c>
       <c r="AM62" t="n">
-        <v>-3816</v>
+        <v>-4111</v>
       </c>
       <c r="AN62" t="n">
-        <v>-3519</v>
+        <v>-5042</v>
       </c>
       <c r="AO62" t="n">
-        <v>-4142</v>
+        <v>-5742</v>
       </c>
       <c r="AP62" t="n">
-        <v>-4111</v>
+        <v>-5144</v>
       </c>
       <c r="AQ62" t="n">
-        <v>-5042</v>
+        <v>-5205</v>
       </c>
       <c r="AR62" t="n">
-        <v>-5742</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>-5144</v>
-      </c>
+        <v>-5370</v>
+      </c>
+      <c r="AS62" t="inlineStr"/>
       <c r="AT62" t="n">
-        <v>-5205</v>
+        <v>-5386</v>
       </c>
       <c r="AU62" t="n">
-        <v>-5370</v>
-      </c>
-      <c r="AV62" t="inlineStr"/>
+        <v>-5081</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-5115</v>
+      </c>
       <c r="AW62" t="n">
-        <v>-5386</v>
+        <v>-6448</v>
       </c>
       <c r="AX62" t="n">
-        <v>-5081</v>
+        <v>-6229</v>
       </c>
       <c r="AY62" t="n">
-        <v>-5115</v>
+        <v>-7139</v>
       </c>
       <c r="AZ62" t="n">
-        <v>-6448</v>
+        <v>-8117</v>
       </c>
       <c r="BA62" t="n">
-        <v>-6229</v>
+        <v>-7809</v>
       </c>
       <c r="BB62" t="n">
-        <v>-7139</v>
+        <v>-8483</v>
       </c>
       <c r="BC62" t="n">
-        <v>-8117</v>
+        <v>-9651</v>
       </c>
       <c r="BD62" t="n">
-        <v>-7809</v>
+        <v>-9714</v>
       </c>
       <c r="BE62" t="n">
-        <v>-8483</v>
+        <v>-12113</v>
       </c>
       <c r="BF62" t="n">
-        <v>-9651</v>
+        <v>-10809</v>
       </c>
       <c r="BG62" t="n">
-        <v>-9714</v>
+        <v>-11546</v>
       </c>
       <c r="BH62" t="n">
-        <v>-12113</v>
+        <v>-10337</v>
       </c>
       <c r="BI62" t="n">
-        <v>-10809</v>
+        <v>-12881</v>
       </c>
     </row>
     <row r="63">
@@ -11954,182 +11942,182 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1489</v>
+        <v>-1854</v>
       </c>
       <c r="C63" t="n">
-        <v>-1861</v>
+        <v>-1923</v>
       </c>
       <c r="D63" t="n">
-        <v>-1542</v>
+        <v>-2175</v>
       </c>
       <c r="E63" t="n">
-        <v>-1854</v>
+        <v>-1851</v>
       </c>
       <c r="F63" t="n">
-        <v>-1923</v>
+        <v>-1872</v>
       </c>
       <c r="G63" t="n">
-        <v>-2175</v>
+        <v>-2141</v>
       </c>
       <c r="H63" t="n">
-        <v>-1851</v>
+        <v>-2258</v>
       </c>
       <c r="I63" t="n">
-        <v>-1872</v>
+        <v>-2840</v>
       </c>
       <c r="J63" t="n">
-        <v>-2141</v>
+        <v>-2840</v>
       </c>
       <c r="K63" t="n">
-        <v>-2258</v>
+        <v>-3137</v>
       </c>
       <c r="L63" t="n">
-        <v>-2840</v>
+        <v>-3252</v>
       </c>
       <c r="M63" t="n">
-        <v>-2840</v>
+        <v>-3144</v>
       </c>
       <c r="N63" t="n">
-        <v>-3137</v>
+        <v>-3613</v>
       </c>
       <c r="O63" t="n">
-        <v>-3252</v>
+        <v>-3561</v>
       </c>
       <c r="P63" t="n">
-        <v>-3144</v>
+        <v>-3469</v>
       </c>
       <c r="Q63" t="n">
-        <v>-3613</v>
+        <v>-3508</v>
       </c>
       <c r="R63" t="n">
-        <v>-3561</v>
+        <v>-3316</v>
       </c>
       <c r="S63" t="n">
-        <v>-3469</v>
+        <v>-3380</v>
       </c>
       <c r="T63" t="n">
-        <v>-3508</v>
+        <v>-3207</v>
       </c>
       <c r="U63" t="n">
-        <v>-3316</v>
+        <v>-3269</v>
       </c>
       <c r="V63" t="n">
-        <v>-3380</v>
+        <v>-3292</v>
       </c>
       <c r="W63" t="n">
-        <v>-3207</v>
+        <v>-3552</v>
       </c>
       <c r="X63" t="n">
-        <v>-3269</v>
+        <v>-3379</v>
       </c>
       <c r="Y63" t="n">
-        <v>-3292</v>
+        <v>-3536</v>
       </c>
       <c r="Z63" t="n">
-        <v>-3552</v>
+        <v>-3626</v>
       </c>
       <c r="AA63" t="n">
-        <v>-3379</v>
+        <v>-3475</v>
       </c>
       <c r="AB63" t="n">
-        <v>-3536</v>
+        <v>-3855</v>
       </c>
       <c r="AC63" t="n">
-        <v>-3626</v>
+        <v>-3309</v>
       </c>
       <c r="AD63" t="n">
-        <v>-3475</v>
+        <v>-3957</v>
       </c>
       <c r="AE63" t="n">
-        <v>-3855</v>
+        <v>-3360</v>
       </c>
       <c r="AF63" t="n">
-        <v>-3309</v>
+        <v>-3410</v>
       </c>
       <c r="AG63" t="n">
-        <v>-3957</v>
+        <v>-3400</v>
       </c>
       <c r="AH63" t="n">
-        <v>-3360</v>
+        <v>-3927</v>
       </c>
       <c r="AI63" t="n">
-        <v>-3410</v>
+        <v>-4371</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-3400</v>
+        <v>-3607</v>
       </c>
       <c r="AK63" t="n">
-        <v>-3927</v>
+        <v>-3980</v>
       </c>
       <c r="AL63" t="n">
-        <v>-4371</v>
+        <v>-4294</v>
       </c>
       <c r="AM63" t="n">
-        <v>-3607</v>
+        <v>-4218</v>
       </c>
       <c r="AN63" t="n">
-        <v>-3980</v>
+        <v>-4191</v>
       </c>
       <c r="AO63" t="n">
-        <v>-4294</v>
+        <v>-6257</v>
       </c>
       <c r="AP63" t="n">
-        <v>-4218</v>
+        <v>-5333</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-4191</v>
+        <v>-4924</v>
       </c>
       <c r="AR63" t="n">
-        <v>-6257</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-5333</v>
-      </c>
+        <v>-5261</v>
+      </c>
+      <c r="AS63" t="inlineStr"/>
       <c r="AT63" t="n">
-        <v>-4924</v>
+        <v>-5379</v>
       </c>
       <c r="AU63" t="n">
-        <v>-5261</v>
-      </c>
-      <c r="AV63" t="inlineStr"/>
+        <v>-5272</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-5202</v>
+      </c>
       <c r="AW63" t="n">
-        <v>-5379</v>
+        <v>-7188</v>
       </c>
       <c r="AX63" t="n">
-        <v>-5272</v>
+        <v>-6651</v>
       </c>
       <c r="AY63" t="n">
-        <v>-5202</v>
+        <v>-7488</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-7188</v>
+        <v>-8782</v>
       </c>
       <c r="BA63" t="n">
-        <v>-6651</v>
+        <v>-8747</v>
       </c>
       <c r="BB63" t="n">
-        <v>-7488</v>
+        <v>-8688</v>
       </c>
       <c r="BC63" t="n">
-        <v>-8782</v>
+        <v>-8751</v>
       </c>
       <c r="BD63" t="n">
-        <v>-8747</v>
+        <v>-10999</v>
       </c>
       <c r="BE63" t="n">
-        <v>-8688</v>
+        <v>-12315</v>
       </c>
       <c r="BF63" t="n">
-        <v>-8751</v>
+        <v>-11832</v>
       </c>
       <c r="BG63" t="n">
-        <v>-10999</v>
+        <v>-13872</v>
       </c>
       <c r="BH63" t="n">
-        <v>-12315</v>
+        <v>-14081</v>
       </c>
       <c r="BI63" t="n">
-        <v>-11832</v>
+        <v>-12589</v>
       </c>
     </row>
     <row r="64">
@@ -12147,9 +12135,15 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
@@ -12243,16 +12237,16 @@
       <c r="AR64" t="n">
         <v>0</v>
       </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS64" t="inlineStr"/>
       <c r="AT64" t="n">
         <v>0</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
       </c>
-      <c r="AV64" t="inlineStr"/>
+      <c r="AV64" t="n">
+        <v>0</v>
+      </c>
       <c r="AW64" t="n">
         <v>0</v>
       </c>
@@ -12300,182 +12294,182 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3236</v>
+        <v>4239</v>
       </c>
       <c r="C65" t="n">
-        <v>3750</v>
+        <v>5126</v>
       </c>
       <c r="D65" t="n">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="E65" t="n">
-        <v>4239</v>
+        <v>3705</v>
       </c>
       <c r="F65" t="n">
-        <v>5126</v>
+        <v>5471</v>
       </c>
       <c r="G65" t="n">
-        <v>3334</v>
+        <v>5258</v>
       </c>
       <c r="H65" t="n">
-        <v>3705</v>
+        <v>4576</v>
       </c>
       <c r="I65" t="n">
-        <v>5471</v>
+        <v>5303</v>
       </c>
       <c r="J65" t="n">
-        <v>5258</v>
+        <v>5303</v>
       </c>
       <c r="K65" t="n">
-        <v>4576</v>
+        <v>10032</v>
       </c>
       <c r="L65" t="n">
-        <v>5303</v>
+        <v>9824</v>
       </c>
       <c r="M65" t="n">
-        <v>5303</v>
+        <v>11551</v>
       </c>
       <c r="N65" t="n">
-        <v>10032</v>
+        <v>3736</v>
       </c>
       <c r="O65" t="n">
-        <v>9824</v>
+        <v>10544</v>
       </c>
       <c r="P65" t="n">
-        <v>11551</v>
+        <v>9077</v>
       </c>
       <c r="Q65" t="n">
-        <v>3736</v>
+        <v>6446</v>
       </c>
       <c r="R65" t="n">
-        <v>10544</v>
+        <v>2461</v>
       </c>
       <c r="S65" t="n">
-        <v>9077</v>
+        <v>8120</v>
       </c>
       <c r="T65" t="n">
-        <v>6446</v>
+        <v>3917</v>
       </c>
       <c r="U65" t="n">
-        <v>2461</v>
+        <v>6176</v>
       </c>
       <c r="V65" t="n">
-        <v>8120</v>
+        <v>2542</v>
       </c>
       <c r="W65" t="n">
-        <v>3917</v>
+        <v>10340</v>
       </c>
       <c r="X65" t="n">
-        <v>6176</v>
+        <v>6387</v>
       </c>
       <c r="Y65" t="n">
-        <v>2542</v>
+        <v>6036</v>
       </c>
       <c r="Z65" t="n">
-        <v>10340</v>
+        <v>3298</v>
       </c>
       <c r="AA65" t="n">
-        <v>6387</v>
+        <v>3924</v>
       </c>
       <c r="AB65" t="n">
-        <v>6036</v>
+        <v>6235</v>
       </c>
       <c r="AC65" t="n">
-        <v>3298</v>
+        <v>4493</v>
       </c>
       <c r="AD65" t="n">
-        <v>3924</v>
+        <v>547</v>
       </c>
       <c r="AE65" t="n">
-        <v>6235</v>
+        <v>6065</v>
       </c>
       <c r="AF65" t="n">
-        <v>4493</v>
+        <v>4355</v>
       </c>
       <c r="AG65" t="n">
-        <v>547</v>
+        <v>3474</v>
       </c>
       <c r="AH65" t="n">
-        <v>6065</v>
+        <v>1463</v>
       </c>
       <c r="AI65" t="n">
-        <v>4355</v>
+        <v>4797</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3474</v>
+        <v>3631</v>
       </c>
       <c r="AK65" t="n">
-        <v>1463</v>
+        <v>6554</v>
       </c>
       <c r="AL65" t="n">
-        <v>4797</v>
+        <v>4288</v>
       </c>
       <c r="AM65" t="n">
-        <v>3631</v>
+        <v>6634</v>
       </c>
       <c r="AN65" t="n">
-        <v>6554</v>
+        <v>5169</v>
       </c>
       <c r="AO65" t="n">
-        <v>4288</v>
+        <v>7722</v>
       </c>
       <c r="AP65" t="n">
-        <v>6634</v>
+        <v>2715</v>
       </c>
       <c r="AQ65" t="n">
-        <v>5169</v>
+        <v>11191</v>
       </c>
       <c r="AR65" t="n">
-        <v>7722</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>2715</v>
-      </c>
+        <v>5936</v>
+      </c>
+      <c r="AS65" t="inlineStr"/>
       <c r="AT65" t="n">
-        <v>11191</v>
+        <v>9109</v>
       </c>
       <c r="AU65" t="n">
-        <v>5936</v>
-      </c>
-      <c r="AV65" t="inlineStr"/>
+        <v>2826</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>6105</v>
+      </c>
       <c r="AW65" t="n">
-        <v>9109</v>
+        <v>10687</v>
       </c>
       <c r="AX65" t="n">
-        <v>2826</v>
+        <v>13216</v>
       </c>
       <c r="AY65" t="n">
-        <v>6105</v>
+        <v>8787</v>
       </c>
       <c r="AZ65" t="n">
-        <v>10687</v>
+        <v>7353</v>
       </c>
       <c r="BA65" t="n">
-        <v>13216</v>
+        <v>10397</v>
       </c>
       <c r="BB65" t="n">
-        <v>8787</v>
+        <v>10747</v>
       </c>
       <c r="BC65" t="n">
-        <v>7353</v>
+        <v>12551</v>
       </c>
       <c r="BD65" t="n">
-        <v>10397</v>
+        <v>17424</v>
       </c>
       <c r="BE65" t="n">
-        <v>10747</v>
+        <v>13023</v>
       </c>
       <c r="BF65" t="n">
-        <v>12551</v>
+        <v>16855</v>
       </c>
       <c r="BG65" t="n">
-        <v>17424</v>
+        <v>18537</v>
       </c>
       <c r="BH65" t="n">
-        <v>13023</v>
+        <v>20519</v>
       </c>
       <c r="BI65" t="n">
-        <v>16855</v>
+        <v>15371</v>
       </c>
     </row>
     <row r="66">
@@ -12488,19 +12482,19 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -12584,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>-1131</v>
       </c>
       <c r="AJ66" t="n">
         <v>0</v>
@@ -12593,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AL66" t="n">
-        <v>-1131</v>
+        <v>359</v>
       </c>
       <c r="AM66" t="n">
         <v>0</v>
@@ -12602,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="AP66" t="n">
         <v>0</v>
@@ -12613,16 +12607,16 @@
       <c r="AR66" t="n">
         <v>0</v>
       </c>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS66" t="inlineStr"/>
       <c r="AT66" t="n">
         <v>0</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
       </c>
-      <c r="AV66" t="inlineStr"/>
+      <c r="AV66" t="n">
+        <v>0</v>
+      </c>
       <c r="AW66" t="n">
         <v>0</v>
       </c>
@@ -12633,34 +12627,34 @@
         <v>0</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="BB66" t="n">
         <v>0</v>
       </c>
       <c r="BC66" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BD66" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="BE66" t="n">
         <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>0</v>
+        <v>-284</v>
       </c>
       <c r="BG66" t="n">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="BH66" t="n">
         <v>0</v>
       </c>
       <c r="BI66" t="n">
-        <v>-284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -12670,182 +12664,182 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C67" t="n">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="D67" t="n">
+        <v>130</v>
+      </c>
+      <c r="E67" t="n">
+        <v>21</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-68</v>
+      </c>
+      <c r="G67" t="n">
+        <v>19</v>
+      </c>
+      <c r="H67" t="n">
         <v>149</v>
       </c>
-      <c r="E67" t="n">
-        <v>183</v>
-      </c>
-      <c r="F67" t="n">
-        <v>140</v>
-      </c>
-      <c r="G67" t="n">
-        <v>130</v>
-      </c>
-      <c r="H67" t="n">
-        <v>21</v>
-      </c>
       <c r="I67" t="n">
-        <v>-68</v>
+        <v>23</v>
       </c>
       <c r="J67" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K67" t="n">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="L67" t="n">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="M67" t="n">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="N67" t="n">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="O67" t="n">
-        <v>157</v>
+        <v>423</v>
       </c>
       <c r="P67" t="n">
-        <v>204</v>
+        <v>-85</v>
       </c>
       <c r="Q67" t="n">
-        <v>43</v>
+        <v>-98</v>
       </c>
       <c r="R67" t="n">
-        <v>423</v>
+        <v>-297</v>
       </c>
       <c r="S67" t="n">
-        <v>-85</v>
+        <v>47</v>
       </c>
       <c r="T67" t="n">
-        <v>-98</v>
+        <v>-200</v>
       </c>
       <c r="U67" t="n">
-        <v>-297</v>
+        <v>151</v>
       </c>
       <c r="V67" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W67" t="n">
-        <v>-200</v>
+        <v>220</v>
       </c>
       <c r="X67" t="n">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="Y67" t="n">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="Z67" t="n">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="AA67" t="n">
-        <v>346</v>
+        <v>912</v>
       </c>
       <c r="AB67" t="n">
-        <v>212</v>
+        <v>465</v>
       </c>
       <c r="AC67" t="n">
-        <v>108</v>
+        <v>-762</v>
       </c>
       <c r="AD67" t="n">
-        <v>912</v>
+        <v>194</v>
       </c>
       <c r="AE67" t="n">
-        <v>465</v>
+        <v>274</v>
       </c>
       <c r="AF67" t="n">
-        <v>-762</v>
+        <v>308</v>
       </c>
       <c r="AG67" t="n">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="n">
-        <v>274</v>
+        <v>-31</v>
       </c>
       <c r="AI67" t="n">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="AJ67" t="n">
-        <v>52</v>
+        <v>-12</v>
       </c>
       <c r="AK67" t="n">
-        <v>-31</v>
+        <v>26</v>
       </c>
       <c r="AL67" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="AM67" t="n">
-        <v>-12</v>
+        <v>71</v>
       </c>
       <c r="AN67" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AO67" t="n">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="AP67" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="AQ67" t="n">
+        <v>73</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>56</v>
+      </c>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="n">
+        <v>66</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV67" t="n">
         <v>57</v>
       </c>
-      <c r="AR67" t="n">
-        <v>119</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>73</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>56</v>
-      </c>
-      <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="n">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="AX67" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AY67" t="n">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="AZ67" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="BA67" t="n">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="BB67" t="n">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="BC67" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="BD67" t="n">
-        <v>318</v>
+        <v>143</v>
       </c>
       <c r="BE67" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="BF67" t="n">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="BG67" t="n">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="BH67" t="n">
-        <v>51</v>
+        <v>-50</v>
       </c>
       <c r="BI67" t="n">
-        <v>287</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68">
@@ -12855,182 +12849,182 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C68" t="n">
-        <v>1144</v>
+        <v>-19</v>
       </c>
       <c r="D68" t="n">
-        <v>308</v>
+        <v>1540</v>
       </c>
       <c r="E68" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F68" t="n">
-        <v>-19</v>
+        <v>-276</v>
       </c>
       <c r="G68" t="n">
-        <v>1540</v>
+        <v>-270</v>
       </c>
       <c r="H68" t="n">
-        <v>36</v>
+        <v>1090</v>
       </c>
       <c r="I68" t="n">
-        <v>-276</v>
+        <v>-510</v>
       </c>
       <c r="J68" t="n">
-        <v>-270</v>
+        <v>-510</v>
       </c>
       <c r="K68" t="n">
-        <v>1090</v>
+        <v>-667</v>
       </c>
       <c r="L68" t="n">
-        <v>-510</v>
+        <v>-1192</v>
       </c>
       <c r="M68" t="n">
-        <v>-510</v>
+        <v>-1284</v>
       </c>
       <c r="N68" t="n">
-        <v>-667</v>
+        <v>3656</v>
       </c>
       <c r="O68" t="n">
-        <v>-1192</v>
+        <v>-1045</v>
       </c>
       <c r="P68" t="n">
-        <v>-1284</v>
+        <v>-831</v>
       </c>
       <c r="Q68" t="n">
-        <v>3656</v>
+        <v>-213</v>
       </c>
       <c r="R68" t="n">
-        <v>-1045</v>
+        <v>2837</v>
       </c>
       <c r="S68" t="n">
-        <v>-831</v>
+        <v>-162</v>
       </c>
       <c r="T68" t="n">
-        <v>-213</v>
+        <v>-733</v>
       </c>
       <c r="U68" t="n">
-        <v>2837</v>
+        <v>-751</v>
       </c>
       <c r="V68" t="n">
-        <v>-162</v>
+        <v>1706</v>
       </c>
       <c r="W68" t="n">
-        <v>-733</v>
+        <v>-292</v>
       </c>
       <c r="X68" t="n">
-        <v>-751</v>
+        <v>191</v>
       </c>
       <c r="Y68" t="n">
-        <v>1706</v>
+        <v>198</v>
       </c>
       <c r="Z68" t="n">
-        <v>-292</v>
+        <v>3462</v>
       </c>
       <c r="AA68" t="n">
-        <v>191</v>
+        <v>548</v>
       </c>
       <c r="AB68" t="n">
-        <v>198</v>
+        <v>892</v>
       </c>
       <c r="AC68" t="n">
-        <v>3462</v>
+        <v>1009</v>
       </c>
       <c r="AD68" t="n">
-        <v>548</v>
+        <v>4106</v>
       </c>
       <c r="AE68" t="n">
-        <v>892</v>
+        <v>1745</v>
       </c>
       <c r="AF68" t="n">
-        <v>1009</v>
+        <v>1317</v>
       </c>
       <c r="AG68" t="n">
-        <v>4106</v>
+        <v>1749</v>
       </c>
       <c r="AH68" t="n">
-        <v>1745</v>
+        <v>4271</v>
       </c>
       <c r="AI68" t="n">
-        <v>1317</v>
+        <v>1521</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1749</v>
+        <v>1271</v>
       </c>
       <c r="AK68" t="n">
-        <v>4271</v>
+        <v>1196</v>
       </c>
       <c r="AL68" t="n">
-        <v>1521</v>
+        <v>2988</v>
       </c>
       <c r="AM68" t="n">
-        <v>1271</v>
+        <v>2545</v>
       </c>
       <c r="AN68" t="n">
-        <v>1196</v>
+        <v>632</v>
       </c>
       <c r="AO68" t="n">
-        <v>2988</v>
+        <v>5006</v>
       </c>
       <c r="AP68" t="n">
-        <v>2545</v>
+        <v>2243</v>
       </c>
       <c r="AQ68" t="n">
-        <v>632</v>
+        <v>956</v>
       </c>
       <c r="AR68" t="n">
-        <v>5006</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>2243</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="AS68" t="inlineStr"/>
       <c r="AT68" t="n">
-        <v>956</v>
+        <v>607</v>
       </c>
       <c r="AU68" t="n">
-        <v>764</v>
-      </c>
-      <c r="AV68" t="inlineStr"/>
+        <v>489</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>535</v>
+      </c>
       <c r="AW68" t="n">
-        <v>607</v>
+        <v>513</v>
       </c>
       <c r="AX68" t="n">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="AY68" t="n">
-        <v>535</v>
+        <v>647</v>
       </c>
       <c r="AZ68" t="n">
-        <v>513</v>
+        <v>1645</v>
       </c>
       <c r="BA68" t="n">
-        <v>436</v>
+        <v>1127</v>
       </c>
       <c r="BB68" t="n">
-        <v>647</v>
+        <v>1376</v>
       </c>
       <c r="BC68" t="n">
-        <v>1645</v>
+        <v>1251</v>
       </c>
       <c r="BD68" t="n">
-        <v>1127</v>
+        <v>-422</v>
       </c>
       <c r="BE68" t="n">
-        <v>1376</v>
+        <v>326</v>
       </c>
       <c r="BF68" t="n">
-        <v>1251</v>
+        <v>257</v>
       </c>
       <c r="BG68" t="n">
-        <v>-422</v>
+        <v>494</v>
       </c>
       <c r="BH68" t="n">
-        <v>326</v>
+        <v>-681</v>
       </c>
       <c r="BI68" t="n">
-        <v>257</v>
+        <v>-283</v>
       </c>
     </row>
     <row r="69">
@@ -13040,182 +13034,182 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>261</v>
+        <v>517</v>
       </c>
       <c r="C69" t="n">
-        <v>1504</v>
+        <v>647</v>
       </c>
       <c r="D69" t="n">
-        <v>627</v>
+        <v>2299</v>
       </c>
       <c r="E69" t="n">
-        <v>517</v>
+        <v>321</v>
       </c>
       <c r="F69" t="n">
-        <v>647</v>
+        <v>189</v>
       </c>
       <c r="G69" t="n">
-        <v>2299</v>
+        <v>166</v>
       </c>
       <c r="H69" t="n">
-        <v>321</v>
+        <v>1656</v>
       </c>
       <c r="I69" t="n">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="J69" t="n">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="K69" t="n">
-        <v>1656</v>
+        <v>579</v>
       </c>
       <c r="L69" t="n">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="M69" t="n">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="N69" t="n">
-        <v>579</v>
+        <v>4926</v>
       </c>
       <c r="O69" t="n">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="P69" t="n">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q69" t="n">
-        <v>4926</v>
+        <v>230</v>
       </c>
       <c r="R69" t="n">
-        <v>491</v>
+        <v>3386</v>
       </c>
       <c r="S69" t="n">
-        <v>165</v>
+        <v>522</v>
       </c>
       <c r="T69" t="n">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="U69" t="n">
-        <v>3386</v>
+        <v>139</v>
       </c>
       <c r="V69" t="n">
-        <v>522</v>
+        <v>2617</v>
       </c>
       <c r="W69" t="n">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="X69" t="n">
-        <v>139</v>
+        <v>446</v>
       </c>
       <c r="Y69" t="n">
+        <v>413</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3730</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>740</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>962</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1065</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>4167</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1822</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1447</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1821</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>4342</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1633</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1347</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>3054</v>
+      </c>
+      <c r="AM69" t="n">
         <v>2617</v>
       </c>
-      <c r="Z69" t="n">
-        <v>308</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>446</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>413</v>
-      </c>
-      <c r="AC69" t="n">
+      <c r="AN69" t="n">
+        <v>696</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>5217</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2522</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1237</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1064</v>
+      </c>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="n">
+        <v>1053</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1063</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>969</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>957</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>942</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2219</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>2330</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>3423</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>3136</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>3514</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>4380</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>4202</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>4769</v>
+      </c>
+      <c r="BH69" t="n">
         <v>3730</v>
       </c>
-      <c r="AD69" t="n">
-        <v>740</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>962</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>1065</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>4167</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>1822</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>1447</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>1821</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>4342</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>1633</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>1347</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1255</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>3054</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>2617</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>696</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>5217</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>2522</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>1237</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>1064</v>
-      </c>
-      <c r="AV69" t="inlineStr"/>
-      <c r="AW69" t="n">
-        <v>1053</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>1063</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>969</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>957</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>942</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>1024</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>2219</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>2330</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>3423</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>3136</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>3514</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>4380</v>
-      </c>
       <c r="BI69" t="n">
-        <v>4202</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="70">
@@ -13225,182 +13219,182 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-187</v>
+        <v>-437</v>
       </c>
       <c r="C70" t="n">
-        <v>-360</v>
+        <v>-666</v>
       </c>
       <c r="D70" t="n">
-        <v>-319</v>
+        <v>-759</v>
       </c>
       <c r="E70" t="n">
-        <v>-437</v>
+        <v>-285</v>
       </c>
       <c r="F70" t="n">
-        <v>-666</v>
+        <v>-465</v>
       </c>
       <c r="G70" t="n">
-        <v>-759</v>
+        <v>-436</v>
       </c>
       <c r="H70" t="n">
-        <v>-285</v>
+        <v>-566</v>
       </c>
       <c r="I70" t="n">
-        <v>-465</v>
+        <v>-605</v>
       </c>
       <c r="J70" t="n">
-        <v>-436</v>
+        <v>-605</v>
       </c>
       <c r="K70" t="n">
-        <v>-566</v>
+        <v>-1246</v>
       </c>
       <c r="L70" t="n">
-        <v>-605</v>
+        <v>-1473</v>
       </c>
       <c r="M70" t="n">
-        <v>-605</v>
+        <v>-1559</v>
       </c>
       <c r="N70" t="n">
-        <v>-1246</v>
+        <v>-1270</v>
       </c>
       <c r="O70" t="n">
-        <v>-1473</v>
+        <v>-1536</v>
       </c>
       <c r="P70" t="n">
-        <v>-1559</v>
+        <v>-996</v>
       </c>
       <c r="Q70" t="n">
-        <v>-1270</v>
+        <v>-443</v>
       </c>
       <c r="R70" t="n">
-        <v>-1536</v>
+        <v>-549</v>
       </c>
       <c r="S70" t="n">
-        <v>-996</v>
+        <v>-684</v>
       </c>
       <c r="T70" t="n">
-        <v>-443</v>
+        <v>-832</v>
       </c>
       <c r="U70" t="n">
-        <v>-549</v>
+        <v>-890</v>
       </c>
       <c r="V70" t="n">
-        <v>-684</v>
+        <v>-911</v>
       </c>
       <c r="W70" t="n">
-        <v>-832</v>
+        <v>-600</v>
       </c>
       <c r="X70" t="n">
-        <v>-890</v>
+        <v>-255</v>
       </c>
       <c r="Y70" t="n">
-        <v>-911</v>
+        <v>-215</v>
       </c>
       <c r="Z70" t="n">
-        <v>-600</v>
+        <v>-268</v>
       </c>
       <c r="AA70" t="n">
-        <v>-255</v>
+        <v>-192</v>
       </c>
       <c r="AB70" t="n">
-        <v>-215</v>
+        <v>-70</v>
       </c>
       <c r="AC70" t="n">
-        <v>-268</v>
+        <v>-56</v>
       </c>
       <c r="AD70" t="n">
-        <v>-192</v>
+        <v>-61</v>
       </c>
       <c r="AE70" t="n">
-        <v>-70</v>
+        <v>-77</v>
       </c>
       <c r="AF70" t="n">
-        <v>-56</v>
+        <v>-130</v>
       </c>
       <c r="AG70" t="n">
-        <v>-61</v>
+        <v>-72</v>
       </c>
       <c r="AH70" t="n">
-        <v>-77</v>
+        <v>-71</v>
       </c>
       <c r="AI70" t="n">
-        <v>-130</v>
+        <v>-112</v>
       </c>
       <c r="AJ70" t="n">
+        <v>-76</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>-66</v>
+      </c>
+      <c r="AM70" t="n">
         <v>-72</v>
       </c>
-      <c r="AK70" t="n">
-        <v>-71</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>-112</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>-76</v>
-      </c>
       <c r="AN70" t="n">
-        <v>-59</v>
+        <v>-64</v>
       </c>
       <c r="AO70" t="n">
-        <v>-66</v>
+        <v>-211</v>
       </c>
       <c r="AP70" t="n">
-        <v>-72</v>
+        <v>-279</v>
       </c>
       <c r="AQ70" t="n">
-        <v>-64</v>
+        <v>-281</v>
       </c>
       <c r="AR70" t="n">
-        <v>-211</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-279</v>
-      </c>
+        <v>-300</v>
+      </c>
+      <c r="AS70" t="inlineStr"/>
       <c r="AT70" t="n">
-        <v>-281</v>
+        <v>-446</v>
       </c>
       <c r="AU70" t="n">
-        <v>-300</v>
-      </c>
-      <c r="AV70" t="inlineStr"/>
+        <v>-574</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>-434</v>
+      </c>
       <c r="AW70" t="n">
-        <v>-446</v>
+        <v>-444</v>
       </c>
       <c r="AX70" t="n">
+        <v>-506</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>-377</v>
+      </c>
+      <c r="AZ70" t="n">
         <v>-574</v>
       </c>
-      <c r="AY70" t="n">
-        <v>-434</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-444</v>
-      </c>
       <c r="BA70" t="n">
-        <v>-506</v>
+        <v>-1203</v>
       </c>
       <c r="BB70" t="n">
-        <v>-377</v>
+        <v>-2047</v>
       </c>
       <c r="BC70" t="n">
-        <v>-574</v>
+        <v>-1885</v>
       </c>
       <c r="BD70" t="n">
-        <v>-1203</v>
+        <v>-3936</v>
       </c>
       <c r="BE70" t="n">
-        <v>-2047</v>
+        <v>-4054</v>
       </c>
       <c r="BF70" t="n">
-        <v>-1885</v>
+        <v>-3945</v>
       </c>
       <c r="BG70" t="n">
-        <v>-3936</v>
+        <v>-4275</v>
       </c>
       <c r="BH70" t="n">
-        <v>-4054</v>
+        <v>-4411</v>
       </c>
       <c r="BI70" t="n">
-        <v>-3945</v>
+        <v>-3972</v>
       </c>
     </row>
     <row r="71">
@@ -13410,41 +13404,35 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-96</v>
+        <v>23</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>23</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22</v>
-      </c>
-      <c r="L71" t="n">
         <v>4</v>
       </c>
-      <c r="M71" t="n">
-        <v>4</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -13501,41 +13489,35 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>-13</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>23</v>
-      </c>
-      <c r="K72" t="n">
-        <v>22</v>
-      </c>
-      <c r="L72" t="n">
         <v>4</v>
       </c>
-      <c r="M72" t="n">
-        <v>4</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -13598,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-83</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -13607,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -13618,15 +13600,9 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -13683,182 +13659,182 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3236</v>
+        <v>3834</v>
       </c>
       <c r="C74" t="n">
-        <v>2918</v>
+        <v>4182</v>
       </c>
       <c r="D74" t="n">
-        <v>3170</v>
+        <v>2305</v>
       </c>
       <c r="E74" t="n">
-        <v>3834</v>
+        <v>3087</v>
       </c>
       <c r="F74" t="n">
-        <v>4182</v>
+        <v>2110</v>
       </c>
       <c r="G74" t="n">
-        <v>2305</v>
+        <v>2413</v>
       </c>
       <c r="H74" t="n">
-        <v>3087</v>
+        <v>2969</v>
       </c>
       <c r="I74" t="n">
-        <v>2110</v>
+        <v>2004</v>
       </c>
       <c r="J74" t="n">
-        <v>2413</v>
+        <v>2004</v>
       </c>
       <c r="K74" t="n">
-        <v>2969</v>
+        <v>5566</v>
       </c>
       <c r="L74" t="n">
-        <v>2004</v>
+        <v>4306</v>
       </c>
       <c r="M74" t="n">
-        <v>2004</v>
+        <v>6979</v>
       </c>
       <c r="N74" t="n">
-        <v>5566</v>
+        <v>1337</v>
       </c>
       <c r="O74" t="n">
-        <v>4306</v>
+        <v>5084</v>
       </c>
       <c r="P74" t="n">
-        <v>6979</v>
+        <v>2645</v>
       </c>
       <c r="Q74" t="n">
-        <v>1337</v>
+        <v>2219</v>
       </c>
       <c r="R74" t="n">
-        <v>5084</v>
+        <v>2383</v>
       </c>
       <c r="S74" t="n">
-        <v>2645</v>
+        <v>4650</v>
       </c>
       <c r="T74" t="n">
-        <v>2219</v>
+        <v>1161</v>
       </c>
       <c r="U74" t="n">
-        <v>2383</v>
+        <v>4523</v>
       </c>
       <c r="V74" t="n">
-        <v>4650</v>
+        <v>3206</v>
       </c>
       <c r="W74" t="n">
-        <v>1161</v>
+        <v>8496</v>
       </c>
       <c r="X74" t="n">
-        <v>4523</v>
+        <v>7056</v>
       </c>
       <c r="Y74" t="n">
-        <v>3206</v>
+        <v>4883</v>
       </c>
       <c r="Z74" t="n">
-        <v>8496</v>
+        <v>3731</v>
       </c>
       <c r="AA74" t="n">
-        <v>7056</v>
+        <v>2998</v>
       </c>
       <c r="AB74" t="n">
-        <v>4883</v>
+        <v>3209</v>
       </c>
       <c r="AC74" t="n">
-        <v>3731</v>
+        <v>3220</v>
       </c>
       <c r="AD74" t="n">
-        <v>2998</v>
+        <v>2833</v>
       </c>
       <c r="AE74" t="n">
-        <v>3209</v>
+        <v>6119</v>
       </c>
       <c r="AF74" t="n">
-        <v>3220</v>
+        <v>3660</v>
       </c>
       <c r="AG74" t="n">
-        <v>2833</v>
+        <v>3619</v>
       </c>
       <c r="AH74" t="n">
-        <v>6119</v>
+        <v>3671</v>
       </c>
       <c r="AI74" t="n">
-        <v>3660</v>
+        <v>2531</v>
       </c>
       <c r="AJ74" t="n">
-        <v>3619</v>
+        <v>2384</v>
       </c>
       <c r="AK74" t="n">
-        <v>3671</v>
+        <v>5887</v>
       </c>
       <c r="AL74" t="n">
-        <v>2531</v>
+        <v>5345</v>
       </c>
       <c r="AM74" t="n">
-        <v>2384</v>
+        <v>6243</v>
       </c>
       <c r="AN74" t="n">
-        <v>5887</v>
+        <v>2494</v>
       </c>
       <c r="AO74" t="n">
-        <v>5345</v>
+        <v>8670</v>
       </c>
       <c r="AP74" t="n">
-        <v>6243</v>
+        <v>5245</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2494</v>
+        <v>10917</v>
       </c>
       <c r="AR74" t="n">
-        <v>8670</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>5245</v>
-      </c>
+        <v>6190</v>
+      </c>
+      <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="n">
-        <v>10917</v>
+        <v>6815</v>
       </c>
       <c r="AU74" t="n">
-        <v>6190</v>
-      </c>
-      <c r="AV74" t="inlineStr"/>
+        <v>715</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>10607</v>
+      </c>
       <c r="AW74" t="n">
-        <v>6815</v>
+        <v>12628</v>
       </c>
       <c r="AX74" t="n">
-        <v>715</v>
+        <v>14605</v>
       </c>
       <c r="AY74" t="n">
-        <v>10607</v>
+        <v>13599</v>
       </c>
       <c r="AZ74" t="n">
-        <v>12628</v>
+        <v>11399</v>
       </c>
       <c r="BA74" t="n">
-        <v>14605</v>
+        <v>12952</v>
       </c>
       <c r="BB74" t="n">
-        <v>13599</v>
+        <v>16385</v>
       </c>
       <c r="BC74" t="n">
-        <v>11399</v>
+        <v>21451</v>
       </c>
       <c r="BD74" t="n">
-        <v>12952</v>
+        <v>16981</v>
       </c>
       <c r="BE74" t="n">
-        <v>16385</v>
+        <v>10734</v>
       </c>
       <c r="BF74" t="n">
-        <v>21451</v>
+        <v>12311</v>
       </c>
       <c r="BG74" t="n">
-        <v>16981</v>
+        <v>8887</v>
       </c>
       <c r="BH74" t="n">
-        <v>10734</v>
+        <v>14282</v>
       </c>
       <c r="BI74" t="n">
-        <v>12311</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="75">
@@ -13868,182 +13844,182 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1050</v>
+        <v>-1236</v>
       </c>
       <c r="C75" t="n">
-        <v>-991</v>
+        <v>-1370</v>
       </c>
       <c r="D75" t="n">
-        <v>-1020</v>
+        <v>-743</v>
       </c>
       <c r="E75" t="n">
-        <v>-1236</v>
+        <v>-1038</v>
       </c>
       <c r="F75" t="n">
-        <v>-1370</v>
+        <v>-736</v>
       </c>
       <c r="G75" t="n">
-        <v>-743</v>
+        <v>-809</v>
       </c>
       <c r="H75" t="n">
-        <v>-1038</v>
+        <v>-954</v>
       </c>
       <c r="I75" t="n">
-        <v>-736</v>
+        <v>-669</v>
       </c>
       <c r="J75" t="n">
+        <v>-669</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-1785</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-1407</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-2294</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-452</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-1578</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-922</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-783</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-905</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-1570</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-457</v>
+      </c>
+      <c r="U75" t="n">
+        <v>-1482</v>
+      </c>
+      <c r="V75" t="n">
+        <v>-1072</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-2807</v>
+      </c>
+      <c r="X75" t="n">
+        <v>-2276</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>-1582</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>-1316</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>-708</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>-927</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>-1347</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>-899</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>-1985</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>-1138</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>-1208</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>-1267</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>-835</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>-809</v>
       </c>
-      <c r="K75" t="n">
-        <v>-954</v>
-      </c>
-      <c r="L75" t="n">
-        <v>-669</v>
-      </c>
-      <c r="M75" t="n">
-        <v>-669</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-1785</v>
-      </c>
-      <c r="O75" t="n">
-        <v>-1407</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-2294</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>-452</v>
-      </c>
-      <c r="R75" t="n">
-        <v>-1578</v>
-      </c>
-      <c r="S75" t="n">
-        <v>-922</v>
-      </c>
-      <c r="T75" t="n">
-        <v>-783</v>
-      </c>
-      <c r="U75" t="n">
-        <v>-905</v>
-      </c>
-      <c r="V75" t="n">
-        <v>-1570</v>
-      </c>
-      <c r="W75" t="n">
-        <v>-457</v>
-      </c>
-      <c r="X75" t="n">
-        <v>-1482</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>-1072</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>-2807</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>-2276</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>-1582</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>-1316</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>-708</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>-927</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>-1347</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>-899</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>-1985</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>-1138</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>-1208</v>
-      </c>
       <c r="AK75" t="n">
-        <v>-1267</v>
+        <v>-1956</v>
       </c>
       <c r="AL75" t="n">
-        <v>-835</v>
+        <v>-1801</v>
       </c>
       <c r="AM75" t="n">
-        <v>-809</v>
+        <v>-2100</v>
       </c>
       <c r="AN75" t="n">
-        <v>-1956</v>
+        <v>-341</v>
       </c>
       <c r="AO75" t="n">
-        <v>-1801</v>
+        <v>-2909</v>
       </c>
       <c r="AP75" t="n">
-        <v>-2100</v>
+        <v>-1786</v>
       </c>
       <c r="AQ75" t="n">
-        <v>-341</v>
+        <v>-3693</v>
       </c>
       <c r="AR75" t="n">
-        <v>-2909</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>-1786</v>
-      </c>
+        <v>-2099</v>
+      </c>
+      <c r="AS75" t="inlineStr"/>
       <c r="AT75" t="n">
-        <v>-3693</v>
+        <v>-2364</v>
       </c>
       <c r="AU75" t="n">
-        <v>-2099</v>
-      </c>
-      <c r="AV75" t="inlineStr"/>
+        <v>-325</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>-3689</v>
+      </c>
       <c r="AW75" t="n">
-        <v>-2364</v>
+        <v>-4372</v>
       </c>
       <c r="AX75" t="n">
-        <v>-325</v>
+        <v>-5059</v>
       </c>
       <c r="AY75" t="n">
-        <v>-3689</v>
+        <v>-4658</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-4372</v>
+        <v>-3929</v>
       </c>
       <c r="BA75" t="n">
-        <v>-5059</v>
+        <v>-4361</v>
       </c>
       <c r="BB75" t="n">
-        <v>-4658</v>
+        <v>-5412</v>
       </c>
       <c r="BC75" t="n">
-        <v>-3929</v>
+        <v>-7485</v>
       </c>
       <c r="BD75" t="n">
-        <v>-4361</v>
+        <v>-5965</v>
       </c>
       <c r="BE75" t="n">
-        <v>-5412</v>
+        <v>-3618</v>
       </c>
       <c r="BF75" t="n">
-        <v>-7485</v>
+        <v>-4181</v>
       </c>
       <c r="BG75" t="n">
-        <v>-5965</v>
+        <v>-3138</v>
       </c>
       <c r="BH75" t="n">
-        <v>-3618</v>
+        <v>-4891</v>
       </c>
       <c r="BI75" t="n">
-        <v>-4181</v>
+        <v>-2758</v>
       </c>
     </row>
     <row r="76">
@@ -14181,16 +14157,16 @@
       <c r="AR76" t="n">
         <v>0</v>
       </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS76" t="inlineStr"/>
       <c r="AT76" t="n">
         <v>0</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
       </c>
-      <c r="AV76" t="inlineStr"/>
+      <c r="AV76" t="n">
+        <v>0</v>
+      </c>
       <c r="AW76" t="n">
         <v>0</v>
       </c>
@@ -14264,15 +14240,9 @@
       <c r="J77" t="n">
         <v>0</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
@@ -14355,15 +14325,9 @@
       <c r="J78" t="n">
         <v>0</v>
       </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -14487,182 +14451,182 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2186</v>
+        <v>2598</v>
       </c>
       <c r="C80" t="n">
-        <v>1927</v>
+        <v>2812</v>
       </c>
       <c r="D80" t="n">
-        <v>2150</v>
+        <v>1562</v>
       </c>
       <c r="E80" t="n">
-        <v>2598</v>
+        <v>2049</v>
       </c>
       <c r="F80" t="n">
-        <v>2812</v>
+        <v>1374</v>
       </c>
       <c r="G80" t="n">
-        <v>1562</v>
+        <v>1604</v>
       </c>
       <c r="H80" t="n">
-        <v>2049</v>
+        <v>2015</v>
       </c>
       <c r="I80" t="n">
-        <v>1374</v>
+        <v>1335</v>
       </c>
       <c r="J80" t="n">
-        <v>1604</v>
+        <v>1335</v>
       </c>
       <c r="K80" t="n">
-        <v>2015</v>
+        <v>3781</v>
       </c>
       <c r="L80" t="n">
-        <v>1335</v>
+        <v>2899</v>
       </c>
       <c r="M80" t="n">
-        <v>1335</v>
+        <v>4685</v>
       </c>
       <c r="N80" t="n">
-        <v>3781</v>
+        <v>885</v>
       </c>
       <c r="O80" t="n">
-        <v>2899</v>
+        <v>3506</v>
       </c>
       <c r="P80" t="n">
-        <v>4685</v>
+        <v>1723</v>
       </c>
       <c r="Q80" t="n">
-        <v>885</v>
+        <v>1436</v>
       </c>
       <c r="R80" t="n">
-        <v>3506</v>
+        <v>1478</v>
       </c>
       <c r="S80" t="n">
-        <v>1723</v>
+        <v>3080</v>
       </c>
       <c r="T80" t="n">
-        <v>1436</v>
+        <v>704</v>
       </c>
       <c r="U80" t="n">
-        <v>1478</v>
+        <v>3041</v>
       </c>
       <c r="V80" t="n">
-        <v>3080</v>
+        <v>2134</v>
       </c>
       <c r="W80" t="n">
-        <v>704</v>
+        <v>5689</v>
       </c>
       <c r="X80" t="n">
-        <v>3041</v>
+        <v>4780</v>
       </c>
       <c r="Y80" t="n">
-        <v>2134</v>
+        <v>3301</v>
       </c>
       <c r="Z80" t="n">
-        <v>5689</v>
+        <v>2415</v>
       </c>
       <c r="AA80" t="n">
-        <v>4780</v>
+        <v>2290</v>
       </c>
       <c r="AB80" t="n">
-        <v>3301</v>
+        <v>2282</v>
       </c>
       <c r="AC80" t="n">
-        <v>2415</v>
+        <v>1873</v>
       </c>
       <c r="AD80" t="n">
-        <v>2290</v>
+        <v>1934</v>
       </c>
       <c r="AE80" t="n">
-        <v>2282</v>
+        <v>4134</v>
       </c>
       <c r="AF80" t="n">
-        <v>1873</v>
+        <v>2522</v>
       </c>
       <c r="AG80" t="n">
-        <v>1934</v>
+        <v>2411</v>
       </c>
       <c r="AH80" t="n">
-        <v>4134</v>
+        <v>2404</v>
       </c>
       <c r="AI80" t="n">
-        <v>2522</v>
+        <v>1696</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2411</v>
+        <v>1575</v>
       </c>
       <c r="AK80" t="n">
-        <v>2404</v>
+        <v>3931</v>
       </c>
       <c r="AL80" t="n">
-        <v>1696</v>
+        <v>3544</v>
       </c>
       <c r="AM80" t="n">
-        <v>1575</v>
+        <v>4143</v>
       </c>
       <c r="AN80" t="n">
-        <v>3931</v>
+        <v>2153</v>
       </c>
       <c r="AO80" t="n">
-        <v>3544</v>
+        <v>5761</v>
       </c>
       <c r="AP80" t="n">
-        <v>4143</v>
+        <v>3459</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2153</v>
+        <v>7224</v>
       </c>
       <c r="AR80" t="n">
-        <v>5761</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>3459</v>
-      </c>
+        <v>4091</v>
+      </c>
+      <c r="AS80" t="inlineStr"/>
       <c r="AT80" t="n">
-        <v>7224</v>
+        <v>4451</v>
       </c>
       <c r="AU80" t="n">
-        <v>4091</v>
-      </c>
-      <c r="AV80" t="inlineStr"/>
+        <v>390</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>6918</v>
+      </c>
       <c r="AW80" t="n">
-        <v>4451</v>
+        <v>8256</v>
       </c>
       <c r="AX80" t="n">
-        <v>390</v>
+        <v>9546</v>
       </c>
       <c r="AY80" t="n">
-        <v>6918</v>
+        <v>8941</v>
       </c>
       <c r="AZ80" t="n">
-        <v>8256</v>
+        <v>7470</v>
       </c>
       <c r="BA80" t="n">
-        <v>9546</v>
+        <v>8591</v>
       </c>
       <c r="BB80" t="n">
-        <v>8941</v>
+        <v>10973</v>
       </c>
       <c r="BC80" t="n">
-        <v>7470</v>
+        <v>13966</v>
       </c>
       <c r="BD80" t="n">
-        <v>8591</v>
+        <v>11016</v>
       </c>
       <c r="BE80" t="n">
-        <v>10973</v>
+        <v>7116</v>
       </c>
       <c r="BF80" t="n">
-        <v>13966</v>
+        <v>8130</v>
       </c>
       <c r="BG80" t="n">
-        <v>11016</v>
+        <v>5749</v>
       </c>
       <c r="BH80" t="n">
-        <v>7116</v>
+        <v>9391</v>
       </c>
       <c r="BI80" t="n">
-        <v>8130</v>
+        <v>6612</v>
       </c>
     </row>
   </sheetData>
